--- a/usvi_permanova_results-2025-01-09.xlsx
+++ b/usvi_permanova_results-2025-01-09.xlsx
@@ -1,26 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10119"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sharongrim/projects/apprill/usvi_temporal/usvi_time/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9615594-5322-1A44-9400-2CAAC81674A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BBC83DF-8A21-7147-940F-DE55988C5517}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5100" yWindow="1460" windowWidth="27640" windowHeight="16940" activeTab="1" xr2:uid="{3EC858BC-379A-AD4E-8A3E-FAFD67EED2A3}"/>
+    <workbookView xWindow="880" yWindow="1040" windowWidth="27640" windowHeight="16940" activeTab="3" xr2:uid="{3EC858BC-379A-AD4E-8A3E-FAFD67EED2A3}"/>
   </bookViews>
   <sheets>
     <sheet name="site and time" sheetId="1" r:id="rId1"/>
     <sheet name="site and day" sheetId="2" r:id="rId2"/>
+    <sheet name="updated site day" sheetId="3" r:id="rId3"/>
+    <sheet name="updated site time" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'site and day'!$A$2:$T$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">'site and time'!$A$2:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'updated site day'!$B$2:$AB$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'updated site time'!$A$3:$AC$3</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -41,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="865" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1651" uniqueCount="120">
   <si>
     <t>pair1</t>
   </si>
@@ -204,14 +208,213 @@
   <si>
     <t>keep</t>
   </si>
+  <si>
+    <t>q05</t>
+  </si>
+  <si>
+    <t>q10</t>
+  </si>
+  <si>
+    <t>0.15576547821168804</t>
+  </si>
+  <si>
+    <t>0.1662617136295338</t>
+  </si>
+  <si>
+    <t>0.034482989137603136</t>
+  </si>
+  <si>
+    <t>0.14289544457044454</t>
+  </si>
+  <si>
+    <t>0.041113354060799745</t>
+  </si>
+  <si>
+    <t>0.024367192809534623</t>
+  </si>
+  <si>
+    <t>0.048973999386594455</t>
+  </si>
+  <si>
+    <t>0.11786733692762104</t>
+  </si>
+  <si>
+    <t>0.16290065890220318</t>
+  </si>
+  <si>
+    <t>0.15195998198915656</t>
+  </si>
+  <si>
+    <t>0.1159911729280824</t>
+  </si>
+  <si>
+    <t>0.15422247056276697</t>
+  </si>
+  <si>
+    <t>0.15407284169381147</t>
+  </si>
+  <si>
+    <t>0.11255243581899144</t>
+  </si>
+  <si>
+    <t>0.10352339343778348</t>
+  </si>
+  <si>
+    <t>0.10403361236678117</t>
+  </si>
+  <si>
+    <t>0.1283628794111924</t>
+  </si>
+  <si>
+    <t>0.13748342442371392</t>
+  </si>
+  <si>
+    <t>0.1284541456249387</t>
+  </si>
+  <si>
+    <t>0.11929277393322416</t>
+  </si>
+  <si>
+    <t>0.1504874677972198</t>
+  </si>
+  <si>
+    <t>0.12990691489851844</t>
+  </si>
+  <si>
+    <t>0.15552205785526266</t>
+  </si>
+  <si>
+    <t>0.12068823440354026</t>
+  </si>
+  <si>
+    <t>0.17322542794745685</t>
+  </si>
+  <si>
+    <t>0.1257557951113248</t>
+  </si>
+  <si>
+    <t>0.10954241294251055</t>
+  </si>
+  <si>
+    <t>0.14715416184741556</t>
+  </si>
+  <si>
+    <t>0.10969160080829406</t>
+  </si>
+  <si>
+    <t>Day3 vs Day2</t>
+  </si>
+  <si>
+    <t>Day4 vs Day2</t>
+  </si>
+  <si>
+    <t>Day5 vs Day2</t>
+  </si>
+  <si>
+    <t>Lameshur Bay vs Tektite</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Lameshur Bay vs Yawzi</t>
+  </si>
+  <si>
+    <t>Day4 vs Day3</t>
+  </si>
+  <si>
+    <t>Day5 vs Day3</t>
+  </si>
+  <si>
+    <t>Day5 vs Day4</t>
+  </si>
+  <si>
+    <t>Tektite vs Yawzi</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>static</t>
+  </si>
+  <si>
+    <t>p.value&lt;q</t>
+  </si>
+  <si>
+    <t>p.value &lt; 0.05</t>
+  </si>
+  <si>
+    <t>Tektite.peak_photo</t>
+  </si>
+  <si>
+    <t>Yawzi.peak_photo</t>
+  </si>
+  <si>
+    <t>Lameshur.peak_photo</t>
+  </si>
+  <si>
+    <t>variable</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>hold</t>
+  </si>
+  <si>
+    <t>Dawn</t>
+  </si>
+  <si>
+    <t>Afternoon</t>
+  </si>
+  <si>
+    <t>Lameshur</t>
+  </si>
+  <si>
+    <t>Comparison</t>
+  </si>
+  <si>
+    <t>row order</t>
+  </si>
+  <si>
+    <t>hold_var</t>
+  </si>
+  <si>
+    <t>var1</t>
+  </si>
+  <si>
+    <t>var2</t>
+  </si>
+  <si>
+    <t>comparison</t>
+  </si>
+  <si>
+    <t>Yawzi afternoon</t>
+  </si>
+  <si>
+    <t>Lameshur dawn</t>
+  </si>
+  <si>
+    <t>Yawzi dawn</t>
+  </si>
+  <si>
+    <t>Tektite dawn</t>
+  </si>
+  <si>
+    <t>Lameshur afternoon</t>
+  </si>
+  <si>
+    <t>Tektite afternoon</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="166" formatCode="0.000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -255,13 +458,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -599,7 +807,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+      <selection activeCell="C3" sqref="C3:D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1023,11 +1231,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10338D2E-78A4-9F43-B4EC-29E6455A3B2C}">
   <dimension ref="A1:U107"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="2" topLeftCell="D3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="H107" sqref="H107"/>
+      <selection pane="bottomRight" activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1165,11 +1373,11 @@
         <v>48</v>
       </c>
       <c r="O3" t="str">
-        <f>L3</f>
+        <f t="shared" ref="O3:O32" si="0">L3</f>
         <v>Lameshur Bay</v>
       </c>
       <c r="P3" t="str">
-        <f>CONCATENATE(M3, " vs ", K3)</f>
+        <f t="shared" ref="P3:P32" si="1">CONCATENATE(M3, " vs ", K3)</f>
         <v>Day2 vs Day1</v>
       </c>
       <c r="Q3" s="1">
@@ -1225,11 +1433,11 @@
         <v>48</v>
       </c>
       <c r="O4" t="str">
-        <f>L4</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P4" t="str">
-        <f>CONCATENATE(M4, " vs ", K4)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day1</v>
       </c>
       <c r="Q4" s="1">
@@ -1285,11 +1493,11 @@
         <v>48</v>
       </c>
       <c r="O5" t="str">
-        <f>L5</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P5" t="str">
-        <f>CONCATENATE(M5, " vs ", K5)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day1</v>
       </c>
       <c r="Q5" s="1">
@@ -1345,11 +1553,11 @@
         <v>48</v>
       </c>
       <c r="O6" t="str">
-        <f>L6</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P6" t="str">
-        <f>CONCATENATE(M6, " vs ", K6)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day1</v>
       </c>
       <c r="Q6" s="1">
@@ -1405,11 +1613,11 @@
         <v>48</v>
       </c>
       <c r="O7" t="str">
-        <f>L7</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P7" t="str">
-        <f>CONCATENATE(M7, " vs ", K7)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day2</v>
       </c>
       <c r="Q7" s="1">
@@ -1469,11 +1677,11 @@
         <v>48</v>
       </c>
       <c r="O8" t="str">
-        <f>L8</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P8" t="str">
-        <f>CONCATENATE(M8, " vs ", K8)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day2</v>
       </c>
       <c r="Q8" s="1">
@@ -1536,11 +1744,11 @@
         <v>48</v>
       </c>
       <c r="O9" t="str">
-        <f>L9</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P9" t="str">
-        <f>CONCATENATE(M9, " vs ", K9)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day2</v>
       </c>
       <c r="Q9" s="1">
@@ -1600,11 +1808,11 @@
         <v>48</v>
       </c>
       <c r="O10" t="str">
-        <f>L10</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P10" t="str">
-        <f>CONCATENATE(M10, " vs ", K10)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day3</v>
       </c>
       <c r="Q10" s="1">
@@ -1664,11 +1872,11 @@
         <v>48</v>
       </c>
       <c r="O11" t="str">
-        <f>L11</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P11" t="str">
-        <f>CONCATENATE(M11, " vs ", K11)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day3</v>
       </c>
       <c r="Q11" s="1">
@@ -1731,11 +1939,11 @@
         <v>48</v>
       </c>
       <c r="O12" t="str">
-        <f>L12</f>
+        <f t="shared" si="0"/>
         <v>Lameshur Bay</v>
       </c>
       <c r="P12" t="str">
-        <f>CONCATENATE(M12, " vs ", K12)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day4</v>
       </c>
       <c r="Q12" s="1">
@@ -1795,11 +2003,11 @@
         <v>48</v>
       </c>
       <c r="O13" t="str">
-        <f>L13</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P13" t="str">
-        <f>CONCATENATE(M13, " vs ", K13)</f>
+        <f t="shared" si="1"/>
         <v>Day2 vs Day1</v>
       </c>
       <c r="Q13" s="1">
@@ -1855,11 +2063,11 @@
         <v>48</v>
       </c>
       <c r="O14" t="str">
-        <f>L14</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P14" t="str">
-        <f>CONCATENATE(M14, " vs ", K14)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day1</v>
       </c>
       <c r="Q14" s="1">
@@ -1915,11 +2123,11 @@
         <v>48</v>
       </c>
       <c r="O15" t="str">
-        <f>L15</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P15" t="str">
-        <f>CONCATENATE(M15, " vs ", K15)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day1</v>
       </c>
       <c r="Q15" s="1">
@@ -1975,11 +2183,11 @@
         <v>48</v>
       </c>
       <c r="O16" t="str">
-        <f>L16</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P16" t="str">
-        <f>CONCATENATE(M16, " vs ", K16)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day1</v>
       </c>
       <c r="Q16" s="1">
@@ -2035,11 +2243,11 @@
         <v>48</v>
       </c>
       <c r="O17" t="str">
-        <f>L17</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P17" t="str">
-        <f>CONCATENATE(M17, " vs ", K17)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day2</v>
       </c>
       <c r="Q17" s="1">
@@ -2099,11 +2307,11 @@
         <v>48</v>
       </c>
       <c r="O18" t="str">
-        <f>L18</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P18" t="str">
-        <f>CONCATENATE(M18, " vs ", K18)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day2</v>
       </c>
       <c r="Q18" s="1">
@@ -2163,11 +2371,11 @@
         <v>48</v>
       </c>
       <c r="O19" t="str">
-        <f>L19</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P19" t="str">
-        <f>CONCATENATE(M19, " vs ", K19)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day2</v>
       </c>
       <c r="Q19" s="1">
@@ -2227,11 +2435,11 @@
         <v>48</v>
       </c>
       <c r="O20" t="str">
-        <f>L20</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P20" t="str">
-        <f>CONCATENATE(M20, " vs ", K20)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day3</v>
       </c>
       <c r="Q20" s="1">
@@ -2291,11 +2499,11 @@
         <v>48</v>
       </c>
       <c r="O21" t="str">
-        <f>L21</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P21" t="str">
-        <f>CONCATENATE(M21, " vs ", K21)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day3</v>
       </c>
       <c r="Q21" s="1">
@@ -2355,11 +2563,11 @@
         <v>48</v>
       </c>
       <c r="O22" t="str">
-        <f>L22</f>
+        <f t="shared" si="0"/>
         <v>Tektite</v>
       </c>
       <c r="P22" t="str">
-        <f>CONCATENATE(M22, " vs ", K22)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day4</v>
       </c>
       <c r="Q22" s="1">
@@ -2419,11 +2627,11 @@
         <v>48</v>
       </c>
       <c r="O23" t="str">
-        <f>L23</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P23" t="str">
-        <f>CONCATENATE(M23, " vs ", K23)</f>
+        <f t="shared" si="1"/>
         <v>Day2 vs Day1</v>
       </c>
       <c r="Q23" s="1">
@@ -2479,11 +2687,11 @@
         <v>48</v>
       </c>
       <c r="O24" t="str">
-        <f>L24</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P24" t="str">
-        <f>CONCATENATE(M24, " vs ", K24)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day1</v>
       </c>
       <c r="Q24" s="1">
@@ -2539,11 +2747,11 @@
         <v>48</v>
       </c>
       <c r="O25" t="str">
-        <f>L25</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P25" t="str">
-        <f>CONCATENATE(M25, " vs ", K25)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day1</v>
       </c>
       <c r="Q25" s="1">
@@ -2599,11 +2807,11 @@
         <v>48</v>
       </c>
       <c r="O26" t="str">
-        <f>L26</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P26" t="str">
-        <f>CONCATENATE(M26, " vs ", K26)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day1</v>
       </c>
       <c r="Q26" s="1">
@@ -2659,11 +2867,11 @@
         <v>48</v>
       </c>
       <c r="O27" t="str">
-        <f>L27</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P27" t="str">
-        <f>CONCATENATE(M27, " vs ", K27)</f>
+        <f t="shared" si="1"/>
         <v>Day3 vs Day2</v>
       </c>
       <c r="Q27" s="1">
@@ -2723,11 +2931,11 @@
         <v>48</v>
       </c>
       <c r="O28" t="str">
-        <f>L28</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P28" t="str">
-        <f>CONCATENATE(M28, " vs ", K28)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day2</v>
       </c>
       <c r="Q28" s="1">
@@ -2787,11 +2995,11 @@
         <v>48</v>
       </c>
       <c r="O29" t="str">
-        <f>L29</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P29" t="str">
-        <f>CONCATENATE(M29, " vs ", K29)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day2</v>
       </c>
       <c r="Q29" s="1">
@@ -2851,11 +3059,11 @@
         <v>48</v>
       </c>
       <c r="O30" t="str">
-        <f>L30</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P30" t="str">
-        <f>CONCATENATE(M30, " vs ", K30)</f>
+        <f t="shared" si="1"/>
         <v>Day4 vs Day3</v>
       </c>
       <c r="Q30" s="1">
@@ -2915,11 +3123,11 @@
         <v>48</v>
       </c>
       <c r="O31" t="str">
-        <f>L31</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P31" t="str">
-        <f>CONCATENATE(M31, " vs ", K31)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day3</v>
       </c>
       <c r="Q31" s="1">
@@ -2979,11 +3187,11 @@
         <v>48</v>
       </c>
       <c r="O32" t="str">
-        <f>L32</f>
+        <f t="shared" si="0"/>
         <v>Yawzi</v>
       </c>
       <c r="P32" t="str">
-        <f>CONCATENATE(M32, " vs ", K32)</f>
+        <f t="shared" si="1"/>
         <v>Day5 vs Day4</v>
       </c>
       <c r="Q32" s="1">
@@ -3043,11 +3251,11 @@
         <v>51</v>
       </c>
       <c r="O33" t="str">
-        <f>M33</f>
+        <f t="shared" ref="O33:O47" si="2">M33</f>
         <v>Day1</v>
       </c>
       <c r="P33" t="str">
-        <f>CONCATENATE(J33, " vs ", L33)</f>
+        <f t="shared" ref="P33:P47" si="3">CONCATENATE(J33, " vs ", L33)</f>
         <v>Lameshur Bay vs Tektite</v>
       </c>
       <c r="Q33" s="1">
@@ -3103,11 +3311,11 @@
         <v>51</v>
       </c>
       <c r="O34" t="str">
-        <f>M34</f>
+        <f t="shared" si="2"/>
         <v>Day2</v>
       </c>
       <c r="P34" t="str">
-        <f>CONCATENATE(J34, " vs ", L34)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Tektite</v>
       </c>
       <c r="Q34" s="1">
@@ -3167,11 +3375,11 @@
         <v>51</v>
       </c>
       <c r="O35" t="str">
-        <f>M35</f>
+        <f t="shared" si="2"/>
         <v>Day3</v>
       </c>
       <c r="P35" t="str">
-        <f>CONCATENATE(J35, " vs ", L35)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Tektite</v>
       </c>
       <c r="Q35" s="1">
@@ -3231,11 +3439,11 @@
         <v>51</v>
       </c>
       <c r="O36" t="str">
-        <f>M36</f>
+        <f t="shared" si="2"/>
         <v>Day4</v>
       </c>
       <c r="P36" t="str">
-        <f>CONCATENATE(J36, " vs ", L36)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Tektite</v>
       </c>
       <c r="Q36" s="1">
@@ -3295,11 +3503,11 @@
         <v>51</v>
       </c>
       <c r="O37" t="str">
-        <f>M37</f>
+        <f t="shared" si="2"/>
         <v>Day5</v>
       </c>
       <c r="P37" t="str">
-        <f>CONCATENATE(J37, " vs ", L37)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Tektite</v>
       </c>
       <c r="Q37" s="1">
@@ -3359,11 +3567,11 @@
         <v>51</v>
       </c>
       <c r="O38" t="str">
-        <f>M38</f>
+        <f t="shared" si="2"/>
         <v>Day1</v>
       </c>
       <c r="P38" t="str">
-        <f>CONCATENATE(J38, " vs ", L38)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Yawzi</v>
       </c>
       <c r="Q38" s="1">
@@ -3419,11 +3627,11 @@
         <v>51</v>
       </c>
       <c r="O39" t="str">
-        <f>M39</f>
+        <f t="shared" si="2"/>
         <v>Day2</v>
       </c>
       <c r="P39" t="str">
-        <f>CONCATENATE(J39, " vs ", L39)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Yawzi</v>
       </c>
       <c r="Q39" s="1">
@@ -3483,11 +3691,11 @@
         <v>51</v>
       </c>
       <c r="O40" t="str">
-        <f>M40</f>
+        <f t="shared" si="2"/>
         <v>Day3</v>
       </c>
       <c r="P40" t="str">
-        <f>CONCATENATE(J40, " vs ", L40)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Yawzi</v>
       </c>
       <c r="Q40" s="1">
@@ -3550,11 +3758,11 @@
         <v>51</v>
       </c>
       <c r="O41" t="str">
-        <f>M41</f>
+        <f t="shared" si="2"/>
         <v>Day4</v>
       </c>
       <c r="P41" t="str">
-        <f>CONCATENATE(J41, " vs ", L41)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Yawzi</v>
       </c>
       <c r="Q41" s="1">
@@ -3617,11 +3825,11 @@
         <v>51</v>
       </c>
       <c r="O42" t="str">
-        <f>M42</f>
+        <f t="shared" si="2"/>
         <v>Day5</v>
       </c>
       <c r="P42" t="str">
-        <f>CONCATENATE(J42, " vs ", L42)</f>
+        <f t="shared" si="3"/>
         <v>Lameshur Bay vs Yawzi</v>
       </c>
       <c r="Q42" s="1">
@@ -3681,11 +3889,11 @@
         <v>51</v>
       </c>
       <c r="O43" t="str">
-        <f>M43</f>
+        <f t="shared" si="2"/>
         <v>Day1</v>
       </c>
       <c r="P43" t="str">
-        <f>CONCATENATE(J43, " vs ", L43)</f>
+        <f t="shared" si="3"/>
         <v>Tektite vs Yawzi</v>
       </c>
       <c r="Q43" s="1">
@@ -3741,11 +3949,11 @@
         <v>51</v>
       </c>
       <c r="O44" t="str">
-        <f>M44</f>
+        <f t="shared" si="2"/>
         <v>Day2</v>
       </c>
       <c r="P44" t="str">
-        <f>CONCATENATE(J44, " vs ", L44)</f>
+        <f t="shared" si="3"/>
         <v>Tektite vs Yawzi</v>
       </c>
       <c r="Q44" s="1">
@@ -3805,11 +4013,11 @@
         <v>51</v>
       </c>
       <c r="O45" t="str">
-        <f>M45</f>
+        <f t="shared" si="2"/>
         <v>Day3</v>
       </c>
       <c r="P45" t="str">
-        <f>CONCATENATE(J45, " vs ", L45)</f>
+        <f t="shared" si="3"/>
         <v>Tektite vs Yawzi</v>
       </c>
       <c r="Q45" s="1">
@@ -3869,11 +4077,11 @@
         <v>51</v>
       </c>
       <c r="O46" t="str">
-        <f>M46</f>
+        <f t="shared" si="2"/>
         <v>Day4</v>
       </c>
       <c r="P46" t="str">
-        <f>CONCATENATE(J46, " vs ", L46)</f>
+        <f t="shared" si="3"/>
         <v>Tektite vs Yawzi</v>
       </c>
       <c r="Q46" s="1">
@@ -3936,11 +4144,11 @@
         <v>51</v>
       </c>
       <c r="O47" t="str">
-        <f>M47</f>
+        <f t="shared" si="2"/>
         <v>Day5</v>
       </c>
       <c r="P47" t="str">
-        <f>CONCATENATE(J47, " vs ", L47)</f>
+        <f t="shared" si="3"/>
         <v>Tektite vs Yawzi</v>
       </c>
       <c r="Q47" s="1">
@@ -6451,4 +6659,6772 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F025469E-652C-5F4A-9E15-9EC6494F939D}">
+  <dimension ref="B1:AB68"/>
+  <sheetViews>
+    <sheetView topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="R21" sqref="R21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="0" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>95</v>
+      </c>
+      <c r="R1" t="s">
+        <v>95</v>
+      </c>
+      <c r="S1" t="s">
+        <v>96</v>
+      </c>
+      <c r="T1" t="s">
+        <v>96</v>
+      </c>
+      <c r="U1" t="s">
+        <v>96</v>
+      </c>
+      <c r="V1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="s">
+        <v>55</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>54</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" t="s">
+        <v>46</v>
+      </c>
+      <c r="O2" t="s">
+        <v>47</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>49</v>
+      </c>
+      <c r="R2" t="s">
+        <v>50</v>
+      </c>
+      <c r="S2" t="s">
+        <v>52</v>
+      </c>
+      <c r="T2" t="s">
+        <v>49</v>
+      </c>
+      <c r="U2" t="s">
+        <v>50</v>
+      </c>
+      <c r="V2" t="s">
+        <v>2</v>
+      </c>
+      <c r="W2" t="s">
+        <v>97</v>
+      </c>
+      <c r="X2" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>97</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="8">
+        <v>0.65425734492320997</v>
+      </c>
+      <c r="E3" s="8">
+        <v>0.35099057413919299</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0.120204564919406</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0.201217857776535</v>
+      </c>
+      <c r="H3" s="8">
+        <v>-0.88157459100000002</v>
+      </c>
+      <c r="I3" s="9">
+        <v>0.21293713199499301</v>
+      </c>
+      <c r="J3" s="8">
+        <v>5.8134700999999997E-2</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N3" t="s">
+        <v>45</v>
+      </c>
+      <c r="O3" t="s">
+        <v>43</v>
+      </c>
+      <c r="P3" t="str">
+        <f>IF(L3=N3, "Site", IF(M3=O3, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>IF(P3="Day", O3, IF(P3="Site", N3, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R3" t="str">
+        <f>IF(P3="Site", CONCATENATE(O3, " vs ", M3), IF(P3="Day", CONCATENATE(L3, " vs ", N3), ""))</f>
+        <v>Day5 vs Day4</v>
+      </c>
+      <c r="S3" t="s">
+        <v>48</v>
+      </c>
+      <c r="T3" t="s">
+        <v>45</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3" s="1" t="str">
+        <f>IF(E3&lt;0.1,D3,"")</f>
+        <v/>
+      </c>
+      <c r="W3" s="1" t="str">
+        <f>IF(E3&lt;F3,E3,"")</f>
+        <v/>
+      </c>
+      <c r="X3" s="1" t="str">
+        <f t="shared" ref="X3:X32" si="0">IF(E3&lt;0.05,E3,"")</f>
+        <v/>
+      </c>
+      <c r="Y3" s="1" t="str">
+        <f>IF(I3&lt;0.1,G3,"")</f>
+        <v/>
+      </c>
+      <c r="Z3" s="1" t="str">
+        <f>IF(I3&lt;J3,I3,"")</f>
+        <v/>
+      </c>
+      <c r="AA3" s="1" t="str">
+        <f>IF(I3&lt;0.05,I3,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D4" s="8">
+        <v>1.42320917069619</v>
+      </c>
+      <c r="E4" s="8">
+        <v>0.48042891441350899</v>
+      </c>
+      <c r="F4" s="8">
+        <v>9.6486043047411499E-2</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0.16445434701520201</v>
+      </c>
+      <c r="H4" s="8">
+        <v>-0.897781528</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0.87462795100000001</v>
+      </c>
+      <c r="J4" s="9">
+        <v>5.1671383952682899E-2</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="L4" t="s">
+        <v>45</v>
+      </c>
+      <c r="M4" t="s">
+        <v>41</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>43</v>
+      </c>
+      <c r="P4" t="str">
+        <f>IF(L4=N4, "Site", IF(M4=O4, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(P4="Day", O4, IF(P4="Site", N4, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(P4="Site", CONCATENATE(O4, " vs ", M4), IF(P4="Day", CONCATENATE(L4, " vs ", N4), ""))</f>
+        <v>Day5 vs Day3</v>
+      </c>
+      <c r="S4" t="s">
+        <v>48</v>
+      </c>
+      <c r="T4" t="s">
+        <v>45</v>
+      </c>
+      <c r="U4" t="s">
+        <v>92</v>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f t="shared" ref="V4:V32" si="1">IF(E4&lt;0.1,D4,"")</f>
+        <v/>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f t="shared" ref="W4:W32" si="2">IF(E4&lt;F4,E4,"")</f>
+        <v/>
+      </c>
+      <c r="X4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y4" s="1" t="str">
+        <f t="shared" ref="Y4:Y32" si="3">IF(I4&lt;0.1,G4,"")</f>
+        <v/>
+      </c>
+      <c r="Z4" s="1" t="str">
+        <f t="shared" ref="Z4:Z32" si="4">IF(I4&lt;J4,I4,"")</f>
+        <v/>
+      </c>
+      <c r="AA4" s="1" t="str">
+        <f t="shared" ref="AA4:AA32" si="5">IF(I4&lt;0.05,I4,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="8">
+        <v>9.7110427831611196E-2</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.37348392472509501</v>
+      </c>
+      <c r="F5" s="8">
+        <v>9.1477312577981404E-2</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.20451029770895199</v>
+      </c>
+      <c r="H5" s="8">
+        <v>-2.0503534490000002</v>
+      </c>
+      <c r="I5" s="9">
+        <v>0.72750302280153001</v>
+      </c>
+      <c r="J5" s="8">
+        <v>7.5129211000000001E-2</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="L5" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
+        <v>45</v>
+      </c>
+      <c r="O5" t="s">
+        <v>43</v>
+      </c>
+      <c r="P5" t="str">
+        <f>IF(L5=N5, "Site", IF(M5=O5, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q5" t="str">
+        <f>IF(P5="Day", O5, IF(P5="Site", N5, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(P5="Site", CONCATENATE(O5, " vs ", M5), IF(P5="Day", CONCATENATE(L5, " vs ", N5), ""))</f>
+        <v>Day5 vs Day3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>48</v>
+      </c>
+      <c r="T5" t="s">
+        <v>45</v>
+      </c>
+      <c r="U5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W5" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y5" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z5" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA5" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="8">
+        <v>-0.608707673612643</v>
+      </c>
+      <c r="E6" s="8">
+        <v>0.308218961184139</v>
+      </c>
+      <c r="F6" s="8">
+        <v>9.8818177750912006E-2</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0.217893571265692</v>
+      </c>
+      <c r="H6" s="8">
+        <v>-0.74701347200000001</v>
+      </c>
+      <c r="I6" s="8">
+        <v>7.4119077000000005E-2</v>
+      </c>
+      <c r="J6" s="9">
+        <v>4.0874875561733602E-2</v>
+      </c>
+      <c r="K6">
+        <v>8.9654213590199094E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>45</v>
+      </c>
+      <c r="M6" t="s">
+        <v>41</v>
+      </c>
+      <c r="N6" t="s">
+        <v>45</v>
+      </c>
+      <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="str">
+        <f>IF(L6=N6, "Site", IF(M6=O6, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q6" t="str">
+        <f>IF(P6="Day", O6, IF(P6="Site", N6, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(P6="Site", CONCATENATE(O6, " vs ", M6), IF(P6="Day", CONCATENATE(L6, " vs ", N6), ""))</f>
+        <v>Day4 vs Day3</v>
+      </c>
+      <c r="S6" t="s">
+        <v>48</v>
+      </c>
+      <c r="T6" t="s">
+        <v>45</v>
+      </c>
+      <c r="U6" t="s">
+        <v>91</v>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.217893571265692</v>
+      </c>
+      <c r="Z6" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA6" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7" s="8">
+        <v>0.80319281338122706</v>
+      </c>
+      <c r="E7" s="8">
+        <v>0.66069763395591996</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0.113841533588039</v>
+      </c>
+      <c r="G7" s="8">
+        <v>0.19930772376064701</v>
+      </c>
+      <c r="H7" s="8">
+        <v>7.9711947000000005E-2</v>
+      </c>
+      <c r="I7" s="9">
+        <v>0.90784764313714095</v>
+      </c>
+      <c r="J7" s="9">
+        <v>3.4765441322875797E-2</v>
+      </c>
+      <c r="K7">
+        <v>7.76678364519056E-2</v>
+      </c>
+      <c r="L7" t="s">
+        <v>45</v>
+      </c>
+      <c r="M7" t="s">
+        <v>40</v>
+      </c>
+      <c r="N7" t="s">
+        <v>45</v>
+      </c>
+      <c r="O7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P7" t="str">
+        <f>IF(L7=N7, "Site", IF(M7=O7, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q7" t="str">
+        <f>IF(P7="Day", O7, IF(P7="Site", N7, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(P7="Site", CONCATENATE(O7, " vs ", M7), IF(P7="Day", CONCATENATE(L7, " vs ", N7), ""))</f>
+        <v>Day4 vs Day2</v>
+      </c>
+      <c r="S7" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" t="s">
+        <v>45</v>
+      </c>
+      <c r="U7" t="s">
+        <v>86</v>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y7" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z7" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA7" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="8">
+        <v>1.41896544677878</v>
+      </c>
+      <c r="E8" s="8">
+        <v>0.67550522240864996</v>
+      </c>
+      <c r="F8" s="8">
+        <v>9.4165504945115899E-2</v>
+      </c>
+      <c r="G8" s="8">
+        <v>0.16728705843959699</v>
+      </c>
+      <c r="H8" s="9">
+        <v>0.96456904939574295</v>
+      </c>
+      <c r="I8" s="9">
+        <v>0.99542717389056001</v>
+      </c>
+      <c r="J8" s="9">
+        <v>3.2727754315166002E-2</v>
+      </c>
+      <c r="K8">
+        <v>7.6217976508116098E-2</v>
+      </c>
+      <c r="L8" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s">
+        <v>40</v>
+      </c>
+      <c r="N8" t="s">
+        <v>45</v>
+      </c>
+      <c r="O8" t="s">
+        <v>41</v>
+      </c>
+      <c r="P8" t="str">
+        <f>IF(L8=N8, "Site", IF(M8=O8, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q8" t="str">
+        <f>IF(P8="Day", O8, IF(P8="Site", N8, ""))</f>
+        <v>Yawzi</v>
+      </c>
+      <c r="R8" t="str">
+        <f>IF(P8="Site", CONCATENATE(O8, " vs ", M8), IF(P8="Day", CONCATENATE(L8, " vs ", N8), ""))</f>
+        <v>Day3 vs Day2</v>
+      </c>
+      <c r="S8" t="s">
+        <v>48</v>
+      </c>
+      <c r="T8" t="s">
+        <v>45</v>
+      </c>
+      <c r="U8" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y8" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z8" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA8" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="8">
+        <v>0.68369467075303703</v>
+      </c>
+      <c r="E9" s="8">
+        <v>0.331881491663024</v>
+      </c>
+      <c r="F9" s="8">
+        <v>9.5131643660872497E-2</v>
+      </c>
+      <c r="G9" s="8">
+        <v>0.16435253417381099</v>
+      </c>
+      <c r="H9" s="8">
+        <v>-0.85843652699999995</v>
+      </c>
+      <c r="I9" s="9">
+        <v>0.86622711213459103</v>
+      </c>
+      <c r="J9" s="8">
+        <v>8.5107751999999995E-2</v>
+      </c>
+      <c r="K9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>42</v>
+      </c>
+      <c r="N9" t="s">
+        <v>44</v>
+      </c>
+      <c r="O9" t="s">
+        <v>43</v>
+      </c>
+      <c r="P9" t="str">
+        <f>IF(L9=N9, "Site", IF(M9=O9, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q9" t="str">
+        <f>IF(P9="Day", O9, IF(P9="Site", N9, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R9" t="str">
+        <f>IF(P9="Site", CONCATENATE(O9, " vs ", M9), IF(P9="Day", CONCATENATE(L9, " vs ", N9), ""))</f>
+        <v>Day5 vs Day4</v>
+      </c>
+      <c r="S9" t="s">
+        <v>48</v>
+      </c>
+      <c r="T9" t="s">
+        <v>44</v>
+      </c>
+      <c r="U9" t="s">
+        <v>93</v>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y9" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z9" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA9" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="8">
+        <v>-0.18387561351152501</v>
+      </c>
+      <c r="E10" s="8">
+        <v>0.23108881215750501</v>
+      </c>
+      <c r="F10" s="8">
+        <v>9.6103851032322496E-2</v>
+      </c>
+      <c r="G10" s="8">
+        <v>0.17972511656958501</v>
+      </c>
+      <c r="H10" s="9">
+        <v>1.2981419628720701</v>
+      </c>
+      <c r="I10" s="9">
+        <v>0.80579698819002099</v>
+      </c>
+      <c r="J10" s="8">
+        <v>8.6513867999999994E-2</v>
+      </c>
+      <c r="K10" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10" t="s">
+        <v>44</v>
+      </c>
+      <c r="O10" t="s">
+        <v>43</v>
+      </c>
+      <c r="P10" t="str">
+        <f>IF(L10=N10, "Site", IF(M10=O10, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q10" t="str">
+        <f>IF(P10="Day", O10, IF(P10="Site", N10, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R10" t="str">
+        <f>IF(P10="Site", CONCATENATE(O10, " vs ", M10), IF(P10="Day", CONCATENATE(L10, " vs ", N10), ""))</f>
+        <v>Day5 vs Day3</v>
+      </c>
+      <c r="S10" t="s">
+        <v>48</v>
+      </c>
+      <c r="T10" t="s">
+        <v>44</v>
+      </c>
+      <c r="U10" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y10" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z10" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA10" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="8">
+        <v>2.5612156654094198</v>
+      </c>
+      <c r="E11" s="8">
+        <v>0.938023079186177</v>
+      </c>
+      <c r="F11" s="8">
+        <v>6.9556850607654999E-2</v>
+      </c>
+      <c r="G11" s="8">
+        <v>0.109662439024203</v>
+      </c>
+      <c r="H11" s="9">
+        <v>2.2419350541574499</v>
+      </c>
+      <c r="I11" s="9">
+        <v>0.125850863621568</v>
+      </c>
+      <c r="J11" s="8">
+        <v>7.0599062000000004E-2</v>
+      </c>
+      <c r="K11" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>40</v>
+      </c>
+      <c r="N11" t="s">
+        <v>44</v>
+      </c>
+      <c r="O11" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" t="str">
+        <f>IF(L11=N11, "Site", IF(M11=O11, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q11" t="str">
+        <f>IF(P11="Day", O11, IF(P11="Site", N11, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(P11="Site", CONCATENATE(O11, " vs ", M11), IF(P11="Day", CONCATENATE(L11, " vs ", N11), ""))</f>
+        <v>Day5 vs Day2</v>
+      </c>
+      <c r="S11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T11" t="s">
+        <v>44</v>
+      </c>
+      <c r="U11" t="s">
+        <v>87</v>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y11" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z11" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA11" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" s="8">
+        <v>-0.91254718324484296</v>
+      </c>
+      <c r="E12" s="8">
+        <v>0.47163832704887898</v>
+      </c>
+      <c r="F12" s="8">
+        <v>9.8702407202296699E-2</v>
+      </c>
+      <c r="G12" s="8">
+        <v>0.17267200427520199</v>
+      </c>
+      <c r="H12" s="9">
+        <v>1.87924024191762</v>
+      </c>
+      <c r="I12" s="9">
+        <v>0.28092630738614799</v>
+      </c>
+      <c r="J12" s="8">
+        <v>7.8891745999999999E-2</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" t="s">
+        <v>44</v>
+      </c>
+      <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="str">
+        <f>IF(L12=N12, "Site", IF(M12=O12, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q12" t="str">
+        <f>IF(P12="Day", O12, IF(P12="Site", N12, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(P12="Site", CONCATENATE(O12, " vs ", M12), IF(P12="Day", CONCATENATE(L12, " vs ", N12), ""))</f>
+        <v>Day4 vs Day3</v>
+      </c>
+      <c r="S12" t="s">
+        <v>48</v>
+      </c>
+      <c r="T12" t="s">
+        <v>44</v>
+      </c>
+      <c r="U12" t="s">
+        <v>91</v>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y12" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z12" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA12" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="8">
+        <v>1.93700166141511</v>
+      </c>
+      <c r="E13" s="8">
+        <v>0.44888886309215298</v>
+      </c>
+      <c r="F13" s="8">
+        <v>9.1203676903604897E-2</v>
+      </c>
+      <c r="G13" s="8">
+        <v>0.146874504098466</v>
+      </c>
+      <c r="H13" s="9">
+        <v>2.7135686050576799</v>
+      </c>
+      <c r="I13" s="9">
+        <v>0.59895353616705405</v>
+      </c>
+      <c r="J13" s="8">
+        <v>5.7316244000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>9.9164016079260398E-2</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>40</v>
+      </c>
+      <c r="N13" t="s">
+        <v>44</v>
+      </c>
+      <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="str">
+        <f>IF(L13=N13, "Site", IF(M13=O13, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q13" t="str">
+        <f>IF(P13="Day", O13, IF(P13="Site", N13, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R13" t="str">
+        <f>IF(P13="Site", CONCATENATE(O13, " vs ", M13), IF(P13="Day", CONCATENATE(L13, " vs ", N13), ""))</f>
+        <v>Day4 vs Day2</v>
+      </c>
+      <c r="S13" t="s">
+        <v>48</v>
+      </c>
+      <c r="T13" t="s">
+        <v>44</v>
+      </c>
+      <c r="U13" t="s">
+        <v>86</v>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y13" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z13" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA13" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="8">
+        <v>2.8294544764245302</v>
+      </c>
+      <c r="E14" s="8">
+        <v>0.42385954951485</v>
+      </c>
+      <c r="F14" s="8">
+        <v>7.3539356701479194E-2</v>
+      </c>
+      <c r="G14" s="8">
+        <v>0.110588116995643</v>
+      </c>
+      <c r="H14" s="9">
+        <v>0.91005249935037502</v>
+      </c>
+      <c r="I14" s="9">
+        <v>0.54100448469575002</v>
+      </c>
+      <c r="J14" s="8">
+        <v>9.2295213000000001E-2</v>
+      </c>
+      <c r="K14" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>40</v>
+      </c>
+      <c r="N14" t="s">
+        <v>44</v>
+      </c>
+      <c r="O14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" t="str">
+        <f>IF(L14=N14, "Site", IF(M14=O14, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q14" t="str">
+        <f>IF(P14="Day", O14, IF(P14="Site", N14, ""))</f>
+        <v>Tektite</v>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(P14="Site", CONCATENATE(O14, " vs ", M14), IF(P14="Day", CONCATENATE(L14, " vs ", N14), ""))</f>
+        <v>Day3 vs Day2</v>
+      </c>
+      <c r="S14" t="s">
+        <v>48</v>
+      </c>
+      <c r="T14" t="s">
+        <v>44</v>
+      </c>
+      <c r="U14" t="s">
+        <v>85</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y14" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z14" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA14" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="8">
+        <v>-0.79888989684283296</v>
+      </c>
+      <c r="E15" s="8">
+        <v>0.59284899795551504</v>
+      </c>
+      <c r="F15" s="8">
+        <v>0.111381985361912</v>
+      </c>
+      <c r="G15" s="8">
+        <v>0.189179772554355</v>
+      </c>
+      <c r="H15" s="8">
+        <v>-5.2774262749999998</v>
+      </c>
+      <c r="I15" s="9">
+        <v>2.1041618244417699E-2</v>
+      </c>
+      <c r="J15" s="8">
+        <v>2.4011889000000002E-2</v>
+      </c>
+      <c r="K15">
+        <v>4.2448177647059201E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>38</v>
+      </c>
+      <c r="M15" t="s">
+        <v>42</v>
+      </c>
+      <c r="N15" t="s">
+        <v>38</v>
+      </c>
+      <c r="O15" t="s">
+        <v>43</v>
+      </c>
+      <c r="P15" t="str">
+        <f>IF(L15=N15, "Site", IF(M15=O15, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q15" t="str">
+        <f>IF(P15="Day", O15, IF(P15="Site", N15, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R15" t="str">
+        <f>IF(P15="Site", CONCATENATE(O15, " vs ", M15), IF(P15="Day", CONCATENATE(L15, " vs ", N15), ""))</f>
+        <v>Day5 vs Day4</v>
+      </c>
+      <c r="S15" t="s">
+        <v>48</v>
+      </c>
+      <c r="T15" t="s">
+        <v>38</v>
+      </c>
+      <c r="U15" t="s">
+        <v>93</v>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y15" s="1">
+        <f t="shared" si="3"/>
+        <v>0.189179772554355</v>
+      </c>
+      <c r="Z15" s="1">
+        <f t="shared" si="4"/>
+        <v>2.1041618244417699E-2</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="5"/>
+        <v>2.1041618244417699E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="8">
+        <v>-0.277032674669628</v>
+      </c>
+      <c r="E16" s="8">
+        <v>0.69407576340366695</v>
+      </c>
+      <c r="F16" s="8">
+        <v>9.6779644303321297E-2</v>
+      </c>
+      <c r="G16" s="8">
+        <v>0.17146710565089199</v>
+      </c>
+      <c r="H16" s="8">
+        <v>-5.7609042989999999</v>
+      </c>
+      <c r="I16" s="9">
+        <v>0.42927426862822898</v>
+      </c>
+      <c r="J16" s="8">
+        <v>1.7173193E-2</v>
+      </c>
+      <c r="K16">
+        <v>2.9201476149270301E-2</v>
+      </c>
+      <c r="L16" t="s">
+        <v>38</v>
+      </c>
+      <c r="M16" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" t="s">
+        <v>38</v>
+      </c>
+      <c r="O16" t="s">
+        <v>43</v>
+      </c>
+      <c r="P16" t="str">
+        <f>IF(L16=N16, "Site", IF(M16=O16, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q16" t="str">
+        <f>IF(P16="Day", O16, IF(P16="Site", N16, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(P16="Site", CONCATENATE(O16, " vs ", M16), IF(P16="Day", CONCATENATE(L16, " vs ", N16), ""))</f>
+        <v>Day5 vs Day3</v>
+      </c>
+      <c r="S16" t="s">
+        <v>48</v>
+      </c>
+      <c r="T16" t="s">
+        <v>38</v>
+      </c>
+      <c r="U16" t="s">
+        <v>92</v>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y16" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z16" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA16" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="8">
+        <v>-1.0619372426414599</v>
+      </c>
+      <c r="E17" s="8">
+        <v>0.249487727904871</v>
+      </c>
+      <c r="F17" s="8">
+        <v>0.110716062384348</v>
+      </c>
+      <c r="G17" s="8">
+        <v>0.20071138168175801</v>
+      </c>
+      <c r="H17" s="8">
+        <v>-5.0391362700000002</v>
+      </c>
+      <c r="I17" s="9">
+        <v>0.53050424027186704</v>
+      </c>
+      <c r="J17" s="9">
+        <v>2.5781750937602099E-2</v>
+      </c>
+      <c r="K17">
+        <v>4.50032186129476E-2</v>
+      </c>
+      <c r="L17" t="s">
+        <v>38</v>
+      </c>
+      <c r="M17" t="s">
+        <v>40</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P17" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q17" t="str">
+        <f>IF(P17="Day", O17, IF(P17="Site", N17, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(P17="Site", CONCATENATE(O17, " vs ", M17), IF(P17="Day", CONCATENATE(L17, " vs ", N17), ""))</f>
+        <v>Day5 vs Day2</v>
+      </c>
+      <c r="S17" t="s">
+        <v>48</v>
+      </c>
+      <c r="T17" t="s">
+        <v>38</v>
+      </c>
+      <c r="U17" t="s">
+        <v>87</v>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y17" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z17" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA17" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="8">
+        <v>0.58750638508833497</v>
+      </c>
+      <c r="E18" s="8">
+        <v>0.92091756344213704</v>
+      </c>
+      <c r="F18" s="8">
+        <v>9.1151206771442797E-2</v>
+      </c>
+      <c r="G18" s="8">
+        <v>0.13774322359341201</v>
+      </c>
+      <c r="H18" s="8">
+        <v>-0.50143493400000005</v>
+      </c>
+      <c r="I18" s="9">
+        <v>0.84537317856542005</v>
+      </c>
+      <c r="J18" s="8">
+        <v>9.4593634999999995E-2</v>
+      </c>
+      <c r="K18" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="L18" t="s">
+        <v>38</v>
+      </c>
+      <c r="M18" t="s">
+        <v>41</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="s">
+        <v>42</v>
+      </c>
+      <c r="P18" t="str">
+        <f>IF(L18=N18, "Site", IF(M18=O18, "Day", ""))</f>
+        <v>Site</v>
+      </c>
+      <c r="Q18" t="str">
+        <f>IF(P18="Day", O18, IF(P18="Site", N18, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(P18="Site", CONCATENATE(O18, " vs ", M18), IF(P18="Day", CONCATENATE(L18, " vs ", N18), ""))</f>
+        <v>Day4 vs Day3</v>
+      </c>
+      <c r="S18" t="s">
+        <v>48</v>
+      </c>
+      <c r="T18" t="s">
+        <v>38</v>
+      </c>
+      <c r="U18" t="s">
+        <v>91</v>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+      <c r="Y18" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z18" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA18" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B19" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" s="8">
+        <v>-0.162196081021524</v>
+      </c>
+      <c r="E19" s="8">
+        <v>6.7683454814000593E-2</v>
+      </c>
+      <c r="F19" s="8">
+        <v>9.4770661549170396E-2</v>
+      </c>
+      <c r="G19" s="8">
+        <v>0.187931518479868</v>
+      </c>
+      <c r="H19" s="9">
+        <v>0.42001356031312997</v>
+      </c>
+      <c r="I19" s="8">
+        <v>7.5875689999999996E-2</v>
+      </c>
+      <c r="J19" s="8">
+        <v>9.2140762000000001E-2</v>
+      </c>
+      <c r="K19" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L19" t="s">
+        <v>38</v>
+      </c>
+      <c r="M19" t="s">
+        <v>40</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="s">
+        <v>42</v>
+      </c>
+      <c r="P19" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q19" t="str">
+        <f>IF(P19="Day", O19, IF(P19="Site", N19, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R19" t="str">
+        <f>IF(P19="Site", CONCATENATE(O19, " vs ", M19), IF(P19="Day", CONCATENATE(L19, " vs ", N19), ""))</f>
+        <v>Day4 vs Day2</v>
+      </c>
+      <c r="S19" t="s">
+        <v>48</v>
+      </c>
+      <c r="T19" t="s">
+        <v>38</v>
+      </c>
+      <c r="U19" t="s">
+        <v>86</v>
+      </c>
+      <c r="V19" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.162196081021524</v>
+      </c>
+      <c r="W19" s="1">
+        <f t="shared" si="2"/>
+        <v>6.7683454814000593E-2</v>
+      </c>
+      <c r="X19" s="1" t="str">
+        <f>IF(E19&lt;0.05,E19,"")</f>
+        <v/>
+      </c>
+      <c r="Y19" s="1">
+        <f t="shared" si="3"/>
+        <v>0.187931518479868</v>
+      </c>
+      <c r="Z19" s="1">
+        <f t="shared" si="4"/>
+        <v>7.5875689999999996E-2</v>
+      </c>
+      <c r="AA19" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8">
+        <v>-0.87475707909081202</v>
+      </c>
+      <c r="E20" s="8">
+        <v>8.8878097173648599E-2</v>
+      </c>
+      <c r="F20" s="8">
+        <v>7.8173707851107499E-2</v>
+      </c>
+      <c r="G20" s="8">
+        <v>0.13406563053825801</v>
+      </c>
+      <c r="H20" s="8">
+        <v>0.96163616600000001</v>
+      </c>
+      <c r="I20" s="9">
+        <v>0.49569587909813401</v>
+      </c>
+      <c r="J20" s="8">
+        <v>9.0756165999999999E-2</v>
+      </c>
+      <c r="K20" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L20" t="s">
+        <v>38</v>
+      </c>
+      <c r="M20" t="s">
+        <v>40</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q20" t="str">
+        <f>IF(P20="Day", O20, IF(P20="Site", N20, ""))</f>
+        <v>Lameshur Bay</v>
+      </c>
+      <c r="R20" t="str">
+        <f>IF(P20="Site", CONCATENATE(O20, " vs ", M20), IF(P20="Day", CONCATENATE(L20, " vs ", N20), ""))</f>
+        <v>Day3 vs Day2</v>
+      </c>
+      <c r="S20" t="s">
+        <v>48</v>
+      </c>
+      <c r="T20" t="s">
+        <v>38</v>
+      </c>
+      <c r="U20" t="s">
+        <v>85</v>
+      </c>
+      <c r="V20" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.87475707909081202</v>
+      </c>
+      <c r="W20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X20" s="1" t="str">
+        <f t="shared" ref="X20:X32" si="6">IF(E20&lt;0.05,E20,"")</f>
+        <v/>
+      </c>
+      <c r="Y20" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z20" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA20" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>31</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="8">
+        <v>-0.11891150869401999</v>
+      </c>
+      <c r="E21" s="8">
+        <v>0.47824883110292099</v>
+      </c>
+      <c r="F21" s="8">
+        <v>0.10235760687181</v>
+      </c>
+      <c r="G21" s="8">
+        <v>0.184108671315277</v>
+      </c>
+      <c r="H21" s="9">
+        <v>0.70728375654231601</v>
+      </c>
+      <c r="I21" s="9">
+        <v>0.85066040215793504</v>
+      </c>
+      <c r="J21" s="8">
+        <v>7.0828701999999993E-2</v>
+      </c>
+      <c r="K21" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" t="s">
+        <v>43</v>
+      </c>
+      <c r="P21" t="str">
+        <f>IF(L21=N21, "Site", IF(M21=O21, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q21" t="str">
+        <f>IF(P21="Day", O21, IF(P21="Site", N21, ""))</f>
+        <v>Day5</v>
+      </c>
+      <c r="R21" t="str">
+        <f>IF(P21="Site", CONCATENATE(O21, " vs ", M21), IF(P21="Day", CONCATENATE(L21, " vs ", N21), ""))</f>
+        <v>Tektite vs Yawzi</v>
+      </c>
+      <c r="S21" t="s">
+        <v>51</v>
+      </c>
+      <c r="T21" t="s">
+        <v>43</v>
+      </c>
+      <c r="U21" t="s">
+        <v>94</v>
+      </c>
+      <c r="V21" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W21" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X21" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y21" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z21" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA21" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="8">
+        <v>2.26529514191343</v>
+      </c>
+      <c r="E22" s="8">
+        <v>0.17482978252283199</v>
+      </c>
+      <c r="F22" s="8">
+        <v>7.3816280637081302E-2</v>
+      </c>
+      <c r="G22" s="8">
+        <v>0.14288872577001699</v>
+      </c>
+      <c r="H22" s="8">
+        <v>-0.119008164</v>
+      </c>
+      <c r="I22" s="9">
+        <v>0.69082670105992805</v>
+      </c>
+      <c r="J22" s="8">
+        <v>8.5563895000000001E-2</v>
+      </c>
+      <c r="K22" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="L22" t="s">
+        <v>38</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>43</v>
+      </c>
+      <c r="P22" t="str">
+        <f>IF(L22=N22, "Site", IF(M22=O22, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q22" t="str">
+        <f>IF(P22="Day", O22, IF(P22="Site", N22, ""))</f>
+        <v>Day5</v>
+      </c>
+      <c r="R22" t="str">
+        <f>IF(P22="Site", CONCATENATE(O22, " vs ", M22), IF(P22="Day", CONCATENATE(L22, " vs ", N22), ""))</f>
+        <v>Lameshur Bay vs Yawzi</v>
+      </c>
+      <c r="S22" t="s">
+        <v>51</v>
+      </c>
+      <c r="T22" t="s">
+        <v>43</v>
+      </c>
+      <c r="U22" t="s">
+        <v>90</v>
+      </c>
+      <c r="V22" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W22" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X22" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y22" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z22" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA22" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>31</v>
+      </c>
+      <c r="D23" s="8">
+        <v>2.48109414631092</v>
+      </c>
+      <c r="E23" s="8">
+        <v>0.179625107493005</v>
+      </c>
+      <c r="F23" s="8">
+        <v>7.6581582518269395E-2</v>
+      </c>
+      <c r="G23" s="8">
+        <v>0.13859107393696901</v>
+      </c>
+      <c r="H23" s="8">
+        <v>-0.958664446</v>
+      </c>
+      <c r="I23" s="9">
+        <v>0.38754694103132797</v>
+      </c>
+      <c r="J23" s="8">
+        <v>9.4235868E-2</v>
+      </c>
+      <c r="K23" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="L23" t="s">
+        <v>38</v>
+      </c>
+      <c r="M23" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" t="s">
+        <v>43</v>
+      </c>
+      <c r="P23" t="str">
+        <f>IF(L23=N23, "Site", IF(M23=O23, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q23" t="str">
+        <f>IF(P23="Day", O23, IF(P23="Site", N23, ""))</f>
+        <v>Day5</v>
+      </c>
+      <c r="R23" t="str">
+        <f>IF(P23="Site", CONCATENATE(O23, " vs ", M23), IF(P23="Day", CONCATENATE(L23, " vs ", N23), ""))</f>
+        <v>Lameshur Bay vs Tektite</v>
+      </c>
+      <c r="S23" t="s">
+        <v>51</v>
+      </c>
+      <c r="T23" t="s">
+        <v>43</v>
+      </c>
+      <c r="U23" t="s">
+        <v>88</v>
+      </c>
+      <c r="V23" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W23" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X23" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y23" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z23" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA23" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" s="8">
+        <v>-0.26398611663322802</v>
+      </c>
+      <c r="E24" s="8">
+        <v>4.7677945071665201E-2</v>
+      </c>
+      <c r="F24" s="8">
+        <v>9.9839589885086302E-2</v>
+      </c>
+      <c r="G24" s="8">
+        <v>0.17023782654792599</v>
+      </c>
+      <c r="H24" s="9">
+        <v>0.65514088177019703</v>
+      </c>
+      <c r="I24" s="9">
+        <v>0.90229220192159798</v>
+      </c>
+      <c r="J24" s="8">
+        <v>6.2091275000000001E-2</v>
+      </c>
+      <c r="K24" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="str">
+        <f>IF(L24=N24, "Site", IF(M24=O24, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q24" t="str">
+        <f>IF(P24="Day", O24, IF(P24="Site", N24, ""))</f>
+        <v>Day4</v>
+      </c>
+      <c r="R24" t="str">
+        <f>IF(P24="Site", CONCATENATE(O24, " vs ", M24), IF(P24="Day", CONCATENATE(L24, " vs ", N24), ""))</f>
+        <v>Tektite vs Yawzi</v>
+      </c>
+      <c r="S24" t="s">
+        <v>51</v>
+      </c>
+      <c r="T24" t="s">
+        <v>42</v>
+      </c>
+      <c r="U24" t="s">
+        <v>94</v>
+      </c>
+      <c r="V24" s="1">
+        <f t="shared" si="1"/>
+        <v>-0.26398611663322802</v>
+      </c>
+      <c r="W24" s="1">
+        <f t="shared" si="2"/>
+        <v>4.7677945071665201E-2</v>
+      </c>
+      <c r="X24" s="1">
+        <f t="shared" si="6"/>
+        <v>4.7677945071665201E-2</v>
+      </c>
+      <c r="Y24" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z24" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA24" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" s="8">
+        <v>0.97617130039516697</v>
+      </c>
+      <c r="E25" s="8">
+        <v>0.31411567919327599</v>
+      </c>
+      <c r="F25" s="8">
+        <v>9.7538558262790606E-2</v>
+      </c>
+      <c r="G25" s="8">
+        <v>0.16778478149888701</v>
+      </c>
+      <c r="H25" s="8">
+        <v>-2.2538298409999999</v>
+      </c>
+      <c r="I25" s="9">
+        <v>0.87581192409270503</v>
+      </c>
+      <c r="J25" s="8">
+        <v>4.2187913E-2</v>
+      </c>
+      <c r="K25">
+        <v>9.2999576920111196E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>38</v>
+      </c>
+      <c r="M25" t="s">
+        <v>42</v>
+      </c>
+      <c r="N25" t="s">
+        <v>45</v>
+      </c>
+      <c r="O25" t="s">
+        <v>42</v>
+      </c>
+      <c r="P25" t="str">
+        <f>IF(L25=N25, "Site", IF(M25=O25, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q25" t="str">
+        <f>IF(P25="Day", O25, IF(P25="Site", N25, ""))</f>
+        <v>Day4</v>
+      </c>
+      <c r="R25" t="str">
+        <f>IF(P25="Site", CONCATENATE(O25, " vs ", M25), IF(P25="Day", CONCATENATE(L25, " vs ", N25), ""))</f>
+        <v>Lameshur Bay vs Yawzi</v>
+      </c>
+      <c r="S25" t="s">
+        <v>51</v>
+      </c>
+      <c r="T25" t="s">
+        <v>42</v>
+      </c>
+      <c r="U25" t="s">
+        <v>90</v>
+      </c>
+      <c r="V25" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W25" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X25" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y25" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z25" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA25" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="8">
+        <v>1.3030745599457201</v>
+      </c>
+      <c r="E26" s="8">
+        <v>9.5940829328941806E-3</v>
+      </c>
+      <c r="F26" s="8">
+        <v>9.8649769048273106E-2</v>
+      </c>
+      <c r="G26" s="8">
+        <v>0.165750704031325</v>
+      </c>
+      <c r="H26" s="8">
+        <v>-3.4191810880000002</v>
+      </c>
+      <c r="I26" s="9">
+        <v>0.35494384992219202</v>
+      </c>
+      <c r="J26" s="8">
+        <v>4.1744425000000002E-2</v>
+      </c>
+      <c r="K26">
+        <v>7.60504609489141E-2</v>
+      </c>
+      <c r="L26" t="s">
+        <v>38</v>
+      </c>
+      <c r="M26" t="s">
+        <v>42</v>
+      </c>
+      <c r="N26" t="s">
+        <v>44</v>
+      </c>
+      <c r="O26" t="s">
+        <v>42</v>
+      </c>
+      <c r="P26" t="str">
+        <f>IF(L26=N26, "Site", IF(M26=O26, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q26" t="str">
+        <f>IF(P26="Day", O26, IF(P26="Site", N26, ""))</f>
+        <v>Day4</v>
+      </c>
+      <c r="R26" t="str">
+        <f>IF(P26="Site", CONCATENATE(O26, " vs ", M26), IF(P26="Day", CONCATENATE(L26, " vs ", N26), ""))</f>
+        <v>Lameshur Bay vs Tektite</v>
+      </c>
+      <c r="S26" t="s">
+        <v>51</v>
+      </c>
+      <c r="T26" t="s">
+        <v>42</v>
+      </c>
+      <c r="U26" t="s">
+        <v>88</v>
+      </c>
+      <c r="V26" s="1">
+        <f t="shared" si="1"/>
+        <v>1.3030745599457201</v>
+      </c>
+      <c r="W26" s="1">
+        <f t="shared" si="2"/>
+        <v>9.5940829328941806E-3</v>
+      </c>
+      <c r="X26" s="1">
+        <f t="shared" si="6"/>
+        <v>9.5940829328941806E-3</v>
+      </c>
+      <c r="Y26" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z26" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA26" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B27" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="8">
+        <v>-0.434009825868306</v>
+      </c>
+      <c r="E27" s="8">
+        <v>0.85154688479400997</v>
+      </c>
+      <c r="F27" s="8">
+        <v>7.3669781710607396E-2</v>
+      </c>
+      <c r="G27" s="8">
+        <v>0.151018858156904</v>
+      </c>
+      <c r="H27" s="9">
+        <v>3.6511117421295101</v>
+      </c>
+      <c r="I27" s="8">
+        <v>0.682317426</v>
+      </c>
+      <c r="J27" s="9">
+        <v>5.2747898426164501E-2</v>
+      </c>
+      <c r="K27">
+        <v>9.0198056858160999E-2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>41</v>
+      </c>
+      <c r="N27" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" t="s">
+        <v>41</v>
+      </c>
+      <c r="P27" t="str">
+        <f>IF(L27=N27, "Site", IF(M27=O27, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q27" t="str">
+        <f>IF(P27="Day", O27, IF(P27="Site", N27, ""))</f>
+        <v>Day3</v>
+      </c>
+      <c r="R27" t="str">
+        <f>IF(P27="Site", CONCATENATE(O27, " vs ", M27), IF(P27="Day", CONCATENATE(L27, " vs ", N27), ""))</f>
+        <v>Tektite vs Yawzi</v>
+      </c>
+      <c r="S27" t="s">
+        <v>51</v>
+      </c>
+      <c r="T27" t="s">
+        <v>41</v>
+      </c>
+      <c r="U27" t="s">
+        <v>94</v>
+      </c>
+      <c r="V27" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W27" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X27" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y27" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z27" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA27" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C28" t="s">
+        <v>34</v>
+      </c>
+      <c r="D28" s="8">
+        <v>2.3145788933415998</v>
+      </c>
+      <c r="E28" s="8">
+        <v>0.82860020731088802</v>
+      </c>
+      <c r="F28" s="8">
+        <v>4.4614298636138E-2</v>
+      </c>
+      <c r="G28" s="8">
+        <v>8.57938882473189E-2</v>
+      </c>
+      <c r="H28" s="8">
+        <v>-2.6921888809999999</v>
+      </c>
+      <c r="I28" s="9">
+        <v>0.63588765085707899</v>
+      </c>
+      <c r="J28" s="9">
+        <v>2.3411806969714202E-2</v>
+      </c>
+      <c r="K28">
+        <v>4.6381427058284297E-2</v>
+      </c>
+      <c r="L28" t="s">
+        <v>38</v>
+      </c>
+      <c r="M28" t="s">
+        <v>41</v>
+      </c>
+      <c r="N28" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" t="s">
+        <v>41</v>
+      </c>
+      <c r="P28" t="str">
+        <f>IF(L28=N28, "Site", IF(M28=O28, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q28" t="str">
+        <f>IF(P28="Day", O28, IF(P28="Site", N28, ""))</f>
+        <v>Day3</v>
+      </c>
+      <c r="R28" t="str">
+        <f>IF(P28="Site", CONCATENATE(O28, " vs ", M28), IF(P28="Day", CONCATENATE(L28, " vs ", N28), ""))</f>
+        <v>Lameshur Bay vs Yawzi</v>
+      </c>
+      <c r="S28" t="s">
+        <v>51</v>
+      </c>
+      <c r="T28" t="s">
+        <v>41</v>
+      </c>
+      <c r="U28" t="s">
+        <v>90</v>
+      </c>
+      <c r="V28" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W28" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X28" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y28" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z28" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA28" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D29" s="8">
+        <v>2.77988478143891</v>
+      </c>
+      <c r="E29" s="8">
+        <v>0.84388036179243797</v>
+      </c>
+      <c r="F29" s="8">
+        <v>5.3111776946955201E-2</v>
+      </c>
+      <c r="G29" s="8">
+        <v>8.3150045493815397E-2</v>
+      </c>
+      <c r="H29" s="8">
+        <v>-5.6383427790000002</v>
+      </c>
+      <c r="I29" s="9">
+        <v>0.28690627565918098</v>
+      </c>
+      <c r="J29" s="9">
+        <v>2.0499809928080901E-2</v>
+      </c>
+      <c r="K29" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L29" t="s">
+        <v>38</v>
+      </c>
+      <c r="M29" t="s">
+        <v>41</v>
+      </c>
+      <c r="N29" t="s">
+        <v>44</v>
+      </c>
+      <c r="O29" t="s">
+        <v>41</v>
+      </c>
+      <c r="P29" t="str">
+        <f>IF(L29=N29, "Site", IF(M29=O29, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q29" t="str">
+        <f>IF(P29="Day", O29, IF(P29="Site", N29, ""))</f>
+        <v>Day3</v>
+      </c>
+      <c r="R29" t="str">
+        <f>IF(P29="Site", CONCATENATE(O29, " vs ", M29), IF(P29="Day", CONCATENATE(L29, " vs ", N29), ""))</f>
+        <v>Lameshur Bay vs Tektite</v>
+      </c>
+      <c r="S29" t="s">
+        <v>51</v>
+      </c>
+      <c r="T29" t="s">
+        <v>41</v>
+      </c>
+      <c r="U29" t="s">
+        <v>88</v>
+      </c>
+      <c r="V29" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W29" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X29" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y29" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z29" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA29" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B30" t="s">
+        <v>28</v>
+      </c>
+      <c r="C30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="8">
+        <v>0.54882721693863001</v>
+      </c>
+      <c r="E30" s="8">
+        <v>0.68294834896918</v>
+      </c>
+      <c r="F30" s="8">
+        <v>9.3447075581627306E-2</v>
+      </c>
+      <c r="G30" s="8">
+        <v>0.15283239922202599</v>
+      </c>
+      <c r="H30" s="9">
+        <v>3.3468958922694201</v>
+      </c>
+      <c r="I30" s="9">
+        <v>0.228464950688543</v>
+      </c>
+      <c r="J30" s="9">
+        <v>5.6059248492440997E-2</v>
+      </c>
+      <c r="K30" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N30" t="s">
+        <v>45</v>
+      </c>
+      <c r="O30" t="s">
+        <v>40</v>
+      </c>
+      <c r="P30" t="str">
+        <f>IF(L30=N30, "Site", IF(M30=O30, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q30" t="str">
+        <f>IF(P30="Day", O30, IF(P30="Site", N30, ""))</f>
+        <v>Day2</v>
+      </c>
+      <c r="R30" t="str">
+        <f>IF(P30="Site", CONCATENATE(O30, " vs ", M30), IF(P30="Day", CONCATENATE(L30, " vs ", N30), ""))</f>
+        <v>Tektite vs Yawzi</v>
+      </c>
+      <c r="S30" t="s">
+        <v>51</v>
+      </c>
+      <c r="T30" t="s">
+        <v>40</v>
+      </c>
+      <c r="U30" t="s">
+        <v>94</v>
+      </c>
+      <c r="V30" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W30" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X30" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y30" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z30" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA30" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+      <c r="D31" s="8">
+        <v>4.2169317454678799E-2</v>
+      </c>
+      <c r="E31" s="8">
+        <v>0.69054703929513395</v>
+      </c>
+      <c r="F31" s="8">
+        <v>9.1842882139134996E-2</v>
+      </c>
+      <c r="G31" s="8">
+        <v>0.18012140444407601</v>
+      </c>
+      <c r="H31" s="8">
+        <v>-2.6221601369999998</v>
+      </c>
+      <c r="I31" s="9">
+        <v>0.17482531295895301</v>
+      </c>
+      <c r="J31" s="9">
+        <v>2.42749518298872E-2</v>
+      </c>
+      <c r="K31">
+        <v>4.4551838029604697E-2</v>
+      </c>
+      <c r="L31" t="s">
+        <v>38</v>
+      </c>
+      <c r="M31" t="s">
+        <v>40</v>
+      </c>
+      <c r="N31" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" t="str">
+        <f>IF(L31=N31, "Site", IF(M31=O31, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q31" t="str">
+        <f>IF(P31="Day", O31, IF(P31="Site", N31, ""))</f>
+        <v>Day2</v>
+      </c>
+      <c r="R31" t="str">
+        <f>IF(P31="Site", CONCATENATE(O31, " vs ", M31), IF(P31="Day", CONCATENATE(L31, " vs ", N31), ""))</f>
+        <v>Lameshur Bay vs Yawzi</v>
+      </c>
+      <c r="S31" t="s">
+        <v>51</v>
+      </c>
+      <c r="T31" t="s">
+        <v>40</v>
+      </c>
+      <c r="U31" t="s">
+        <v>90</v>
+      </c>
+      <c r="V31" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W31" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X31" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y31" s="1" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="Z31" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA31" s="1" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C32" t="s">
+        <v>28</v>
+      </c>
+      <c r="D32" s="8">
+        <v>-0.63689277233137598</v>
+      </c>
+      <c r="E32" s="8">
+        <v>0.71732496625249298</v>
+      </c>
+      <c r="F32" s="8">
+        <v>0.112897529714465</v>
+      </c>
+      <c r="G32" s="8">
+        <v>0.187264569206847</v>
+      </c>
+      <c r="H32" s="8">
+        <v>-5.871820466</v>
+      </c>
+      <c r="I32" s="9">
+        <v>2.32183441792332E-2</v>
+      </c>
+      <c r="J32" s="9">
+        <v>2.0078261366891399E-2</v>
+      </c>
+      <c r="K32">
+        <v>3.8029824967817497E-2</v>
+      </c>
+      <c r="L32" t="s">
+        <v>38</v>
+      </c>
+      <c r="M32" t="s">
+        <v>40</v>
+      </c>
+      <c r="N32" t="s">
+        <v>44</v>
+      </c>
+      <c r="O32" t="s">
+        <v>40</v>
+      </c>
+      <c r="P32" t="str">
+        <f>IF(L32=N32, "Site", IF(M32=O32, "Day", ""))</f>
+        <v>Day</v>
+      </c>
+      <c r="Q32" t="str">
+        <f>IF(P32="Day", O32, IF(P32="Site", N32, ""))</f>
+        <v>Day2</v>
+      </c>
+      <c r="R32" t="str">
+        <f>IF(P32="Site", CONCATENATE(O32, " vs ", M32), IF(P32="Day", CONCATENATE(L32, " vs ", N32), ""))</f>
+        <v>Lameshur Bay vs Tektite</v>
+      </c>
+      <c r="S32" t="s">
+        <v>51</v>
+      </c>
+      <c r="T32" t="s">
+        <v>40</v>
+      </c>
+      <c r="U32" t="s">
+        <v>88</v>
+      </c>
+      <c r="V32" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="W32" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="X32" s="1" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="Y32" s="1">
+        <f t="shared" si="3"/>
+        <v>0.187264569206847</v>
+      </c>
+      <c r="Z32" s="1" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
+      <c r="AA32" s="1">
+        <f t="shared" si="5"/>
+        <v>2.32183441792332E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B33" t="s">
+        <v>23</v>
+      </c>
+      <c r="C33" t="s">
+        <v>29</v>
+      </c>
+      <c r="D33" s="8">
+        <v>2.6983543323415802</v>
+      </c>
+      <c r="E33" s="8">
+        <v>9.5287548827586596E-2</v>
+      </c>
+      <c r="F33" s="8">
+        <v>5.4870203710127997E-2</v>
+      </c>
+      <c r="G33" s="8">
+        <v>0.12806023300695599</v>
+      </c>
+      <c r="H33" s="8">
+        <v>-5.2438279530000003</v>
+      </c>
+      <c r="I33" s="9">
+        <v>0.27948440484068798</v>
+      </c>
+      <c r="J33" s="9">
+        <v>2.6071807271033601E-2</v>
+      </c>
+      <c r="K33">
+        <v>4.7027105339260397E-2</v>
+      </c>
+      <c r="L33" t="s">
+        <v>38</v>
+      </c>
+      <c r="M33" t="s">
+        <v>40</v>
+      </c>
+      <c r="N33" t="s">
+        <v>44</v>
+      </c>
+      <c r="O33" t="s">
+        <v>41</v>
+      </c>
+      <c r="P33" t="str">
+        <f>IF(L33=N33, "Site", IF(M33=O33, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q33" t="str">
+        <f>IF(P33="Day", O33, IF(P33="Site", N33, ""))</f>
+        <v/>
+      </c>
+      <c r="R33" t="str">
+        <f>IF(P33="Site", CONCATENATE(O33, " vs ", M33), IF(P33="Day", CONCATENATE(L33, " vs ", N33), ""))</f>
+        <v/>
+      </c>
+      <c r="S33" t="s">
+        <v>89</v>
+      </c>
+      <c r="T33" t="s">
+        <v>89</v>
+      </c>
+      <c r="U33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>23</v>
+      </c>
+      <c r="C34" t="s">
+        <v>30</v>
+      </c>
+      <c r="D34" s="8">
+        <v>1.5669361964489099</v>
+      </c>
+      <c r="E34" s="8">
+        <v>0.64375474928784504</v>
+      </c>
+      <c r="F34" s="8">
+        <v>7.7188974789761E-2</v>
+      </c>
+      <c r="G34" s="8">
+        <v>0.174925245218812</v>
+      </c>
+      <c r="H34" s="8">
+        <v>-3.2432323850000002</v>
+      </c>
+      <c r="I34" s="9">
+        <v>0.40302724493501002</v>
+      </c>
+      <c r="J34" s="8">
+        <v>4.6333762000000001E-2</v>
+      </c>
+      <c r="K34">
+        <v>8.2344446392884102E-2</v>
+      </c>
+      <c r="L34" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" t="s">
+        <v>40</v>
+      </c>
+      <c r="N34" t="s">
+        <v>44</v>
+      </c>
+      <c r="O34" t="s">
+        <v>42</v>
+      </c>
+      <c r="P34" t="str">
+        <f>IF(L34=N34, "Site", IF(M34=O34, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q34" t="str">
+        <f>IF(P34="Day", O34, IF(P34="Site", N34, ""))</f>
+        <v/>
+      </c>
+      <c r="R34" t="str">
+        <f>IF(P34="Site", CONCATENATE(O34, " vs ", M34), IF(P34="Day", CONCATENATE(L34, " vs ", N34), ""))</f>
+        <v/>
+      </c>
+      <c r="S34" t="s">
+        <v>89</v>
+      </c>
+      <c r="T34" t="s">
+        <v>89</v>
+      </c>
+      <c r="U34" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35" t="s">
+        <v>31</v>
+      </c>
+      <c r="D35" s="8">
+        <v>2.3344992246409899</v>
+      </c>
+      <c r="E35" s="8">
+        <v>0.22463724172334401</v>
+      </c>
+      <c r="F35" s="8">
+        <v>5.10755143714966E-2</v>
+      </c>
+      <c r="G35" s="8">
+        <v>0.11552312901560099</v>
+      </c>
+      <c r="H35" s="8">
+        <v>-5.4398563370000002</v>
+      </c>
+      <c r="I35" s="9">
+        <v>0.50656072261366003</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1.9559884166503502E-2</v>
+      </c>
+      <c r="K35" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L35" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" t="s">
+        <v>40</v>
+      </c>
+      <c r="N35" t="s">
+        <v>44</v>
+      </c>
+      <c r="O35" t="s">
+        <v>43</v>
+      </c>
+      <c r="P35" t="str">
+        <f>IF(L35=N35, "Site", IF(M35=O35, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q35" t="str">
+        <f>IF(P35="Day", O35, IF(P35="Site", N35, ""))</f>
+        <v/>
+      </c>
+      <c r="R35" t="str">
+        <f>IF(P35="Site", CONCATENATE(O35, " vs ", M35), IF(P35="Day", CONCATENATE(L35, " vs ", N35), ""))</f>
+        <v/>
+      </c>
+      <c r="S35" t="s">
+        <v>89</v>
+      </c>
+      <c r="T35" t="s">
+        <v>89</v>
+      </c>
+      <c r="U35" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="36" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B36" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" t="s">
+        <v>34</v>
+      </c>
+      <c r="D36" s="8">
+        <v>1.9652752702010601</v>
+      </c>
+      <c r="E36" s="8">
+        <v>5.5778098270784497E-2</v>
+      </c>
+      <c r="F36" s="8">
+        <v>3.1863677866520002E-2</v>
+      </c>
+      <c r="G36" s="8">
+        <v>8.4609690857307407E-2</v>
+      </c>
+      <c r="H36" s="8">
+        <v>-2.047684141</v>
+      </c>
+      <c r="I36" s="8">
+        <v>9.7962244000000004E-2</v>
+      </c>
+      <c r="J36" s="8">
+        <v>4.0189665999999999E-2</v>
+      </c>
+      <c r="K36">
+        <v>7.1649164160506998E-2</v>
+      </c>
+      <c r="L36" t="s">
+        <v>38</v>
+      </c>
+      <c r="M36" t="s">
+        <v>40</v>
+      </c>
+      <c r="N36" t="s">
+        <v>45</v>
+      </c>
+      <c r="O36" t="s">
+        <v>41</v>
+      </c>
+      <c r="P36" t="str">
+        <f>IF(L36=N36, "Site", IF(M36=O36, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q36" t="str">
+        <f>IF(P36="Day", O36, IF(P36="Site", N36, ""))</f>
+        <v/>
+      </c>
+      <c r="R36" t="str">
+        <f>IF(P36="Site", CONCATENATE(O36, " vs ", M36), IF(P36="Day", CONCATENATE(L36, " vs ", N36), ""))</f>
+        <v/>
+      </c>
+      <c r="S36" t="s">
+        <v>89</v>
+      </c>
+      <c r="T36" t="s">
+        <v>89</v>
+      </c>
+      <c r="U36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" t="s">
+        <v>35</v>
+      </c>
+      <c r="D37" s="8">
+        <v>1.05795834437418</v>
+      </c>
+      <c r="E37" s="8">
+        <v>0.78376242814865205</v>
+      </c>
+      <c r="F37" s="8">
+        <v>5.2128898949182198E-2</v>
+      </c>
+      <c r="G37" s="8">
+        <v>0.12696864979018899</v>
+      </c>
+      <c r="H37" s="8">
+        <v>-2.0900410310000002</v>
+      </c>
+      <c r="I37" s="8">
+        <v>7.8329290000000006E-3</v>
+      </c>
+      <c r="J37" s="8">
+        <v>4.4119100000000001E-2</v>
+      </c>
+      <c r="K37">
+        <v>9.5292924603232299E-2</v>
+      </c>
+      <c r="L37" t="s">
+        <v>38</v>
+      </c>
+      <c r="M37" t="s">
+        <v>40</v>
+      </c>
+      <c r="N37" t="s">
+        <v>45</v>
+      </c>
+      <c r="O37" t="s">
+        <v>42</v>
+      </c>
+      <c r="P37" t="str">
+        <f>IF(L37=N37, "Site", IF(M37=O37, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q37" t="str">
+        <f>IF(P37="Day", O37, IF(P37="Site", N37, ""))</f>
+        <v/>
+      </c>
+      <c r="R37" t="str">
+        <f>IF(P37="Site", CONCATENATE(O37, " vs ", M37), IF(P37="Day", CONCATENATE(L37, " vs ", N37), ""))</f>
+        <v/>
+      </c>
+      <c r="S37" t="s">
+        <v>89</v>
+      </c>
+      <c r="T37" t="s">
+        <v>89</v>
+      </c>
+      <c r="U37" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B38" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D38" s="8">
+        <v>1.8952726584474999</v>
+      </c>
+      <c r="E38" s="8">
+        <v>3.5842518054317499E-2</v>
+      </c>
+      <c r="F38" s="8">
+        <v>2.74570268560618E-2</v>
+      </c>
+      <c r="G38" s="8">
+        <v>7.8513038692993503E-2</v>
+      </c>
+      <c r="H38" s="8">
+        <v>-3.9720288269999999</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.25199532545293502</v>
+      </c>
+      <c r="J38" s="9">
+        <v>4.0280453300949301E-2</v>
+      </c>
+      <c r="K38">
+        <v>7.9024189004174503E-2</v>
+      </c>
+      <c r="L38" t="s">
+        <v>38</v>
+      </c>
+      <c r="M38" t="s">
+        <v>41</v>
+      </c>
+      <c r="N38" t="s">
+        <v>45</v>
+      </c>
+      <c r="O38" t="s">
+        <v>43</v>
+      </c>
+      <c r="P38" t="str">
+        <f>IF(L38=N38, "Site", IF(M38=O38, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q38" t="str">
+        <f>IF(P38="Day", O38, IF(P38="Site", N38, ""))</f>
+        <v/>
+      </c>
+      <c r="R38" t="str">
+        <f>IF(P38="Site", CONCATENATE(O38, " vs ", M38), IF(P38="Day", CONCATENATE(L38, " vs ", N38), ""))</f>
+        <v/>
+      </c>
+      <c r="S38" t="s">
+        <v>89</v>
+      </c>
+      <c r="T38" t="s">
+        <v>89</v>
+      </c>
+      <c r="U38" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B39" t="s">
+        <v>24</v>
+      </c>
+      <c r="C39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D39" s="8">
+        <v>0.279774708041575</v>
+      </c>
+      <c r="E39" s="8">
+        <v>0.57046472136724402</v>
+      </c>
+      <c r="F39" s="8">
+        <v>0.102244781284644</v>
+      </c>
+      <c r="G39" s="8">
+        <v>0.16185967467076501</v>
+      </c>
+      <c r="H39" s="8">
+        <v>-6.2243600350000001</v>
+      </c>
+      <c r="I39" s="9">
+        <v>0.108291293197725</v>
+      </c>
+      <c r="J39" s="9">
+        <v>1.8181461362597E-2</v>
+      </c>
+      <c r="K39">
+        <v>3.5124645690047598E-2</v>
+      </c>
+      <c r="L39" t="s">
+        <v>38</v>
+      </c>
+      <c r="M39" t="s">
+        <v>41</v>
+      </c>
+      <c r="N39" t="s">
+        <v>44</v>
+      </c>
+      <c r="O39" t="s">
+        <v>40</v>
+      </c>
+      <c r="P39" t="str">
+        <f>IF(L39=N39, "Site", IF(M39=O39, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q39" t="str">
+        <f>IF(P39="Day", O39, IF(P39="Site", N39, ""))</f>
+        <v/>
+      </c>
+      <c r="R39" t="str">
+        <f>IF(P39="Site", CONCATENATE(O39, " vs ", M39), IF(P39="Day", CONCATENATE(L39, " vs ", N39), ""))</f>
+        <v/>
+      </c>
+      <c r="S39" t="s">
+        <v>89</v>
+      </c>
+      <c r="T39" t="s">
+        <v>89</v>
+      </c>
+      <c r="U39" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B40" t="s">
+        <v>24</v>
+      </c>
+      <c r="C40" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="8">
+        <v>2.0227247787681302</v>
+      </c>
+      <c r="E40" s="8">
+        <v>0.58306372260988604</v>
+      </c>
+      <c r="F40" s="8">
+        <v>6.8394663413362006E-2</v>
+      </c>
+      <c r="G40" s="8">
+        <v>0.10887221359272201</v>
+      </c>
+      <c r="H40" s="8">
+        <v>-3.6804367440000001</v>
+      </c>
+      <c r="I40" s="9">
+        <v>0.28532226722577098</v>
+      </c>
+      <c r="J40" s="9">
+        <v>2.8031912914498001E-2</v>
+      </c>
+      <c r="K40">
+        <v>6.1360240137221897E-2</v>
+      </c>
+      <c r="L40" t="s">
+        <v>38</v>
+      </c>
+      <c r="M40" t="s">
+        <v>41</v>
+      </c>
+      <c r="N40" t="s">
+        <v>44</v>
+      </c>
+      <c r="O40" t="s">
+        <v>42</v>
+      </c>
+      <c r="P40" t="str">
+        <f>IF(L40=N40, "Site", IF(M40=O40, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q40" t="str">
+        <f>IF(P40="Day", O40, IF(P40="Site", N40, ""))</f>
+        <v/>
+      </c>
+      <c r="R40" t="str">
+        <f>IF(P40="Site", CONCATENATE(O40, " vs ", M40), IF(P40="Day", CONCATENATE(L40, " vs ", N40), ""))</f>
+        <v/>
+      </c>
+      <c r="S40" t="s">
+        <v>89</v>
+      </c>
+      <c r="T40" t="s">
+        <v>89</v>
+      </c>
+      <c r="U40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="C41" t="s">
+        <v>31</v>
+      </c>
+      <c r="D41" s="8">
+        <v>2.5633863495613598</v>
+      </c>
+      <c r="E41" s="8">
+        <v>0.35884084014062001</v>
+      </c>
+      <c r="F41" s="8">
+        <v>4.1964106325312098E-2</v>
+      </c>
+      <c r="G41" s="8">
+        <v>8.2986256093326896E-2</v>
+      </c>
+      <c r="H41" s="8">
+        <v>-6.0449213049999999</v>
+      </c>
+      <c r="I41" s="8">
+        <v>1.7203248000000001E-2</v>
+      </c>
+      <c r="J41" s="9">
+        <v>1.4872909790450899E-2</v>
+      </c>
+      <c r="K41" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L41" t="s">
+        <v>38</v>
+      </c>
+      <c r="M41" t="s">
+        <v>41</v>
+      </c>
+      <c r="N41" t="s">
+        <v>44</v>
+      </c>
+      <c r="O41" t="s">
+        <v>43</v>
+      </c>
+      <c r="P41" t="str">
+        <f>IF(L41=N41, "Site", IF(M41=O41, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q41" t="str">
+        <f>IF(P41="Day", O41, IF(P41="Site", N41, ""))</f>
+        <v/>
+      </c>
+      <c r="R41" t="str">
+        <f>IF(P41="Site", CONCATENATE(O41, " vs ", M41), IF(P41="Day", CONCATENATE(L41, " vs ", N41), ""))</f>
+        <v/>
+      </c>
+      <c r="S41" t="s">
+        <v>89</v>
+      </c>
+      <c r="T41" t="s">
+        <v>89</v>
+      </c>
+      <c r="U41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="C42" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="8">
+        <v>0.76581826136767595</v>
+      </c>
+      <c r="E42" s="8">
+        <v>0.62224140130613403</v>
+      </c>
+      <c r="F42" s="8">
+        <v>7.3417027673657098E-2</v>
+      </c>
+      <c r="G42" s="8">
+        <v>0.129833223651004</v>
+      </c>
+      <c r="H42" s="8">
+        <v>-3.0927057260000002</v>
+      </c>
+      <c r="I42" s="9">
+        <v>0.64813926552116896</v>
+      </c>
+      <c r="J42" s="8">
+        <v>1.9376286E-2</v>
+      </c>
+      <c r="K42">
+        <v>4.1539480587155203E-2</v>
+      </c>
+      <c r="L42" t="s">
+        <v>38</v>
+      </c>
+      <c r="M42" t="s">
+        <v>41</v>
+      </c>
+      <c r="N42" t="s">
+        <v>45</v>
+      </c>
+      <c r="O42" t="s">
+        <v>40</v>
+      </c>
+      <c r="P42" t="str">
+        <f>IF(L42=N42, "Site", IF(M42=O42, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q42" t="str">
+        <f>IF(P42="Day", O42, IF(P42="Site", N42, ""))</f>
+        <v/>
+      </c>
+      <c r="R42" t="str">
+        <f>IF(P42="Site", CONCATENATE(O42, " vs ", M42), IF(P42="Day", CONCATENATE(L42, " vs ", N42), ""))</f>
+        <v/>
+      </c>
+      <c r="S42" t="s">
+        <v>89</v>
+      </c>
+      <c r="T42" t="s">
+        <v>89</v>
+      </c>
+      <c r="U42" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B43" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" t="s">
+        <v>35</v>
+      </c>
+      <c r="D43" s="8">
+        <v>1.6271318786114299</v>
+      </c>
+      <c r="E43" s="8">
+        <v>0.83823469694354202</v>
+      </c>
+      <c r="F43" s="8">
+        <v>4.93437429256239E-2</v>
+      </c>
+      <c r="G43" s="8">
+        <v>9.6864066099627305E-2</v>
+      </c>
+      <c r="H43" s="8">
+        <v>-2.4735033999999998</v>
+      </c>
+      <c r="I43" s="9">
+        <v>0.37750988724993401</v>
+      </c>
+      <c r="J43" s="9">
+        <v>2.8650985551338898E-2</v>
+      </c>
+      <c r="K43">
+        <v>7.1459354972218905E-2</v>
+      </c>
+      <c r="L43" t="s">
+        <v>38</v>
+      </c>
+      <c r="M43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O43" t="s">
+        <v>42</v>
+      </c>
+      <c r="P43" t="str">
+        <f>IF(L43=N43, "Site", IF(M43=O43, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q43" t="str">
+        <f>IF(P43="Day", O43, IF(P43="Site", N43, ""))</f>
+        <v/>
+      </c>
+      <c r="R43" t="str">
+        <f>IF(P43="Site", CONCATENATE(O43, " vs ", M43), IF(P43="Day", CONCATENATE(L43, " vs ", N43), ""))</f>
+        <v/>
+      </c>
+      <c r="S43" t="s">
+        <v>89</v>
+      </c>
+      <c r="T43" t="s">
+        <v>89</v>
+      </c>
+      <c r="U43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D44" s="8">
+        <v>2.2765990610166602</v>
+      </c>
+      <c r="E44" s="8">
+        <v>2.6261637846818901E-2</v>
+      </c>
+      <c r="F44" s="8">
+        <v>4.4236515195859402E-2</v>
+      </c>
+      <c r="G44" s="8">
+        <v>9.3487637132010207E-2</v>
+      </c>
+      <c r="H44" s="8">
+        <v>-4.4840621260000004</v>
+      </c>
+      <c r="I44" s="9">
+        <v>0.18705202179693101</v>
+      </c>
+      <c r="J44" s="9">
+        <v>2.0252050008851101E-2</v>
+      </c>
+      <c r="K44">
+        <v>5.3321259985304098E-2</v>
+      </c>
+      <c r="L44" t="s">
+        <v>38</v>
+      </c>
+      <c r="M44" t="s">
+        <v>41</v>
+      </c>
+      <c r="N44" t="s">
+        <v>45</v>
+      </c>
+      <c r="O44" t="s">
+        <v>43</v>
+      </c>
+      <c r="P44" t="str">
+        <f>IF(L44=N44, "Site", IF(M44=O44, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q44" t="str">
+        <f>IF(P44="Day", O44, IF(P44="Site", N44, ""))</f>
+        <v/>
+      </c>
+      <c r="R44" t="str">
+        <f>IF(P44="Site", CONCATENATE(O44, " vs ", M44), IF(P44="Day", CONCATENATE(L44, " vs ", N44), ""))</f>
+        <v/>
+      </c>
+      <c r="S44" t="s">
+        <v>89</v>
+      </c>
+      <c r="T44" t="s">
+        <v>89</v>
+      </c>
+      <c r="U44" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45" t="s">
+        <v>28</v>
+      </c>
+      <c r="D45" s="8">
+        <v>-0.357874601047449</v>
+      </c>
+      <c r="E45" s="8">
+        <v>0.76773149008487995</v>
+      </c>
+      <c r="F45" s="8">
+        <v>0.106731463880824</v>
+      </c>
+      <c r="G45" s="8">
+        <v>0.18208701139623401</v>
+      </c>
+      <c r="H45" s="8">
+        <v>-6.0063753179999999</v>
+      </c>
+      <c r="I45" s="9">
+        <v>0.41851265327034098</v>
+      </c>
+      <c r="J45" s="9">
+        <v>2.13857407572338E-2</v>
+      </c>
+      <c r="K45">
+        <v>3.8160513560567898E-2</v>
+      </c>
+      <c r="L45" t="s">
+        <v>38</v>
+      </c>
+      <c r="M45" t="s">
+        <v>42</v>
+      </c>
+      <c r="N45" t="s">
+        <v>44</v>
+      </c>
+      <c r="O45" t="s">
+        <v>40</v>
+      </c>
+      <c r="P45" t="str">
+        <f>IF(L45=N45, "Site", IF(M45=O45, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q45" t="str">
+        <f>IF(P45="Day", O45, IF(P45="Site", N45, ""))</f>
+        <v/>
+      </c>
+      <c r="R45" t="str">
+        <f>IF(P45="Site", CONCATENATE(O45, " vs ", M45), IF(P45="Day", CONCATENATE(L45, " vs ", N45), ""))</f>
+        <v/>
+      </c>
+      <c r="S45" t="s">
+        <v>89</v>
+      </c>
+      <c r="T45" t="s">
+        <v>89</v>
+      </c>
+      <c r="U45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B46" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="8">
+        <v>2.00653343372975</v>
+      </c>
+      <c r="E46" s="8">
+        <v>3.0997739112890801E-2</v>
+      </c>
+      <c r="F46" s="8">
+        <v>8.3752618002801496E-2</v>
+      </c>
+      <c r="G46" s="8">
+        <v>0.15255519478068399</v>
+      </c>
+      <c r="H46" s="8">
+        <v>-5.3941535089999997</v>
+      </c>
+      <c r="I46" s="9">
+        <v>0.75897549915194995</v>
+      </c>
+      <c r="J46" s="9">
+        <v>2.7852908597858401E-2</v>
+      </c>
+      <c r="K46" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="L46" t="s">
+        <v>38</v>
+      </c>
+      <c r="M46" t="s">
+        <v>42</v>
+      </c>
+      <c r="N46" t="s">
+        <v>44</v>
+      </c>
+      <c r="O46" t="s">
+        <v>41</v>
+      </c>
+      <c r="P46" t="str">
+        <f>IF(L46=N46, "Site", IF(M46=O46, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q46" t="str">
+        <f>IF(P46="Day", O46, IF(P46="Site", N46, ""))</f>
+        <v/>
+      </c>
+      <c r="R46" t="str">
+        <f>IF(P46="Site", CONCATENATE(O46, " vs ", M46), IF(P46="Day", CONCATENATE(L46, " vs ", N46), ""))</f>
+        <v/>
+      </c>
+      <c r="S46" t="s">
+        <v>89</v>
+      </c>
+      <c r="T46" t="s">
+        <v>89</v>
+      </c>
+      <c r="U46" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47" t="s">
+        <v>31</v>
+      </c>
+      <c r="D47" s="8">
+        <v>1.8205105239830801</v>
+      </c>
+      <c r="E47" s="8">
+        <v>6.1336904049769797E-2</v>
+      </c>
+      <c r="F47" s="8">
+        <v>9.1431775369036905E-2</v>
+      </c>
+      <c r="G47" s="8">
+        <v>0.15473814686902401</v>
+      </c>
+      <c r="H47" s="8">
+        <v>-5.6464033650000003</v>
+      </c>
+      <c r="I47" s="9">
+        <v>0.33764456083675598</v>
+      </c>
+      <c r="J47" s="9">
+        <v>1.9576896110776499E-2</v>
+      </c>
+      <c r="K47">
+        <v>3.3603374336497099E-2</v>
+      </c>
+      <c r="L47" t="s">
+        <v>38</v>
+      </c>
+      <c r="M47" t="s">
+        <v>42</v>
+      </c>
+      <c r="N47" t="s">
+        <v>44</v>
+      </c>
+      <c r="O47" t="s">
+        <v>43</v>
+      </c>
+      <c r="P47" t="str">
+        <f>IF(L47=N47, "Site", IF(M47=O47, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q47" t="str">
+        <f>IF(P47="Day", O47, IF(P47="Site", N47, ""))</f>
+        <v/>
+      </c>
+      <c r="R47" t="str">
+        <f>IF(P47="Site", CONCATENATE(O47, " vs ", M47), IF(P47="Day", CONCATENATE(L47, " vs ", N47), ""))</f>
+        <v/>
+      </c>
+      <c r="S47" t="s">
+        <v>89</v>
+      </c>
+      <c r="T47" t="s">
+        <v>89</v>
+      </c>
+      <c r="U47" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B48" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" t="s">
+        <v>33</v>
+      </c>
+      <c r="D48" s="8">
+        <v>0.170306550269269</v>
+      </c>
+      <c r="E48" s="8">
+        <v>0.43580978353023597</v>
+      </c>
+      <c r="F48" s="8">
+        <v>0.110927490395358</v>
+      </c>
+      <c r="G48" s="8">
+        <v>0.18528394133859399</v>
+      </c>
+      <c r="H48" s="8">
+        <v>-2.8143227529999999</v>
+      </c>
+      <c r="I48" s="9">
+        <v>0.40695291265531103</v>
+      </c>
+      <c r="J48" s="9">
+        <v>2.5276206477192299E-2</v>
+      </c>
+      <c r="K48">
+        <v>4.7750062315732901E-2</v>
+      </c>
+      <c r="L48" t="s">
+        <v>38</v>
+      </c>
+      <c r="M48" t="s">
+        <v>42</v>
+      </c>
+      <c r="N48" t="s">
+        <v>45</v>
+      </c>
+      <c r="O48" t="s">
+        <v>40</v>
+      </c>
+      <c r="P48" t="str">
+        <f>IF(L48=N48, "Site", IF(M48=O48, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q48" t="str">
+        <f>IF(P48="Day", O48, IF(P48="Site", N48, ""))</f>
+        <v/>
+      </c>
+      <c r="R48" t="str">
+        <f>IF(P48="Site", CONCATENATE(O48, " vs ", M48), IF(P48="Day", CONCATENATE(L48, " vs ", N48), ""))</f>
+        <v/>
+      </c>
+      <c r="S48" t="s">
+        <v>89</v>
+      </c>
+      <c r="T48" t="s">
+        <v>89</v>
+      </c>
+      <c r="U48" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="49" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B49" t="s">
+        <v>25</v>
+      </c>
+      <c r="C49" t="s">
+        <v>34</v>
+      </c>
+      <c r="D49" s="8">
+        <v>1.5961690553618899</v>
+      </c>
+      <c r="E49" s="8">
+        <v>0.137349168142234</v>
+      </c>
+      <c r="F49" s="8">
+        <v>7.9322782972600495E-2</v>
+      </c>
+      <c r="G49" s="8">
+        <v>0.15337622770283299</v>
+      </c>
+      <c r="H49" s="8">
+        <v>-2.3057626949999999</v>
+      </c>
+      <c r="I49" s="9">
+        <v>0.90907069487228398</v>
+      </c>
+      <c r="J49" s="8">
+        <v>3.5896446999999998E-2</v>
+      </c>
+      <c r="K49">
+        <v>6.7950262312078499E-2</v>
+      </c>
+      <c r="L49" t="s">
+        <v>38</v>
+      </c>
+      <c r="M49" t="s">
+        <v>42</v>
+      </c>
+      <c r="N49" t="s">
+        <v>45</v>
+      </c>
+      <c r="O49" t="s">
+        <v>41</v>
+      </c>
+      <c r="P49" t="str">
+        <f>IF(L49=N49, "Site", IF(M49=O49, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q49" t="str">
+        <f>IF(P49="Day", O49, IF(P49="Site", N49, ""))</f>
+        <v/>
+      </c>
+      <c r="R49" t="str">
+        <f>IF(P49="Site", CONCATENATE(O49, " vs ", M49), IF(P49="Day", CONCATENATE(L49, " vs ", N49), ""))</f>
+        <v/>
+      </c>
+      <c r="S49" t="s">
+        <v>89</v>
+      </c>
+      <c r="T49" t="s">
+        <v>89</v>
+      </c>
+      <c r="U49" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>25</v>
+      </c>
+      <c r="C50" t="s">
+        <v>36</v>
+      </c>
+      <c r="D50" s="8">
+        <v>1.5930844640408</v>
+      </c>
+      <c r="E50" s="8">
+        <v>0.50066386495303306</v>
+      </c>
+      <c r="F50" s="8">
+        <v>9.1031356972600105E-2</v>
+      </c>
+      <c r="G50" s="8">
+        <v>0.15777166004406201</v>
+      </c>
+      <c r="H50" s="8">
+        <v>-4.1665453330000002</v>
+      </c>
+      <c r="I50" s="9">
+        <v>0.255058115305</v>
+      </c>
+      <c r="J50" s="8">
+        <v>3.9574262999999998E-2</v>
+      </c>
+      <c r="K50">
+        <v>7.6317481306831206E-2</v>
+      </c>
+      <c r="L50" t="s">
+        <v>38</v>
+      </c>
+      <c r="M50" t="s">
+        <v>42</v>
+      </c>
+      <c r="N50" t="s">
+        <v>45</v>
+      </c>
+      <c r="O50" t="s">
+        <v>43</v>
+      </c>
+      <c r="P50" t="str">
+        <f>IF(L50=N50, "Site", IF(M50=O50, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q50" t="str">
+        <f>IF(P50="Day", O50, IF(P50="Site", N50, ""))</f>
+        <v/>
+      </c>
+      <c r="R50" t="str">
+        <f>IF(P50="Site", CONCATENATE(O50, " vs ", M50), IF(P50="Day", CONCATENATE(L50, " vs ", N50), ""))</f>
+        <v/>
+      </c>
+      <c r="S50" t="s">
+        <v>89</v>
+      </c>
+      <c r="T50" t="s">
+        <v>89</v>
+      </c>
+      <c r="U50" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C51" t="s">
+        <v>28</v>
+      </c>
+      <c r="D51" s="8">
+        <v>0.53917934038743298</v>
+      </c>
+      <c r="E51" s="8">
+        <v>0.45912350848028399</v>
+      </c>
+      <c r="F51" s="8">
+        <v>0.12168480832194201</v>
+      </c>
+      <c r="G51" s="8">
+        <v>0.19522393946025501</v>
+      </c>
+      <c r="H51" s="8">
+        <v>-2.9932365129999998</v>
+      </c>
+      <c r="I51" s="9">
+        <v>0.13847870467162801</v>
+      </c>
+      <c r="J51" s="8">
+        <v>5.2661821999999997E-2</v>
+      </c>
+      <c r="K51">
+        <v>8.81020837858906E-2</v>
+      </c>
+      <c r="L51" t="s">
+        <v>38</v>
+      </c>
+      <c r="M51" t="s">
+        <v>43</v>
+      </c>
+      <c r="N51" t="s">
+        <v>44</v>
+      </c>
+      <c r="O51" t="s">
+        <v>40</v>
+      </c>
+      <c r="P51" t="str">
+        <f>IF(L51=N51, "Site", IF(M51=O51, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q51" t="str">
+        <f>IF(P51="Day", O51, IF(P51="Site", N51, ""))</f>
+        <v/>
+      </c>
+      <c r="R51" t="str">
+        <f>IF(P51="Site", CONCATENATE(O51, " vs ", M51), IF(P51="Day", CONCATENATE(L51, " vs ", N51), ""))</f>
+        <v/>
+      </c>
+      <c r="S51" t="s">
+        <v>89</v>
+      </c>
+      <c r="T51" t="s">
+        <v>89</v>
+      </c>
+      <c r="U51" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B52" t="s">
+        <v>26</v>
+      </c>
+      <c r="C52" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="8">
+        <v>2.6446024188695301</v>
+      </c>
+      <c r="E52" s="8">
+        <v>0.47393630964105998</v>
+      </c>
+      <c r="F52" s="8">
+        <v>8.0250653602374503E-2</v>
+      </c>
+      <c r="G52" s="8">
+        <v>0.13733659968617901</v>
+      </c>
+      <c r="H52" s="8">
+        <v>-2.0845084150000002</v>
+      </c>
+      <c r="I52" s="9">
+        <v>0.29487276448421601</v>
+      </c>
+      <c r="J52" s="8">
+        <v>6.9474736999999995E-2</v>
+      </c>
+      <c r="K52" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="L52" t="s">
+        <v>38</v>
+      </c>
+      <c r="M52" t="s">
+        <v>43</v>
+      </c>
+      <c r="N52" t="s">
+        <v>44</v>
+      </c>
+      <c r="O52" t="s">
+        <v>41</v>
+      </c>
+      <c r="P52" t="str">
+        <f>IF(L52=N52, "Site", IF(M52=O52, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q52" t="str">
+        <f>IF(P52="Day", O52, IF(P52="Site", N52, ""))</f>
+        <v/>
+      </c>
+      <c r="R52" t="str">
+        <f>IF(P52="Site", CONCATENATE(O52, " vs ", M52), IF(P52="Day", CONCATENATE(L52, " vs ", N52), ""))</f>
+        <v/>
+      </c>
+      <c r="S52" t="s">
+        <v>89</v>
+      </c>
+      <c r="T52" t="s">
+        <v>89</v>
+      </c>
+      <c r="U52" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B53" t="s">
+        <v>26</v>
+      </c>
+      <c r="C53" t="s">
+        <v>30</v>
+      </c>
+      <c r="D53" s="8">
+        <v>2.0345594426433702</v>
+      </c>
+      <c r="E53" s="8">
+        <v>0.49893195995575901</v>
+      </c>
+      <c r="F53" s="8">
+        <v>0.10291022540193601</v>
+      </c>
+      <c r="G53" s="8">
+        <v>0.16193327467645199</v>
+      </c>
+      <c r="H53" s="9">
+        <v>0.115780488538842</v>
+      </c>
+      <c r="I53" s="9">
+        <v>0.207346705303565</v>
+      </c>
+      <c r="J53" s="8">
+        <v>9.5191314999999999E-2</v>
+      </c>
+      <c r="K53" s="6" t="s">
+        <v>64</v>
+      </c>
+      <c r="L53" t="s">
+        <v>38</v>
+      </c>
+      <c r="M53" t="s">
+        <v>43</v>
+      </c>
+      <c r="N53" t="s">
+        <v>44</v>
+      </c>
+      <c r="O53" t="s">
+        <v>42</v>
+      </c>
+      <c r="P53" t="str">
+        <f>IF(L53=N53, "Site", IF(M53=O53, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q53" t="str">
+        <f>IF(P53="Day", O53, IF(P53="Site", N53, ""))</f>
+        <v/>
+      </c>
+      <c r="R53" t="str">
+        <f>IF(P53="Site", CONCATENATE(O53, " vs ", M53), IF(P53="Day", CONCATENATE(L53, " vs ", N53), ""))</f>
+        <v/>
+      </c>
+      <c r="S53" t="s">
+        <v>89</v>
+      </c>
+      <c r="T53" t="s">
+        <v>89</v>
+      </c>
+      <c r="U53" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>26</v>
+      </c>
+      <c r="C54" t="s">
+        <v>33</v>
+      </c>
+      <c r="D54" s="8">
+        <v>0.95838811567326898</v>
+      </c>
+      <c r="E54" s="8">
+        <v>0.77913529862298503</v>
+      </c>
+      <c r="F54" s="8">
+        <v>0.111518678030256</v>
+      </c>
+      <c r="G54" s="8">
+        <v>0.18740096742300399</v>
+      </c>
+      <c r="H54" s="9">
+        <v>0.90674229067039103</v>
+      </c>
+      <c r="I54" s="9">
+        <v>0.28471231269213498</v>
+      </c>
+      <c r="J54" s="8">
+        <v>4.4658358000000002E-2</v>
+      </c>
+      <c r="K54">
+        <v>9.8083482391492297E-2</v>
+      </c>
+      <c r="L54" t="s">
+        <v>38</v>
+      </c>
+      <c r="M54" t="s">
+        <v>43</v>
+      </c>
+      <c r="N54" t="s">
+        <v>45</v>
+      </c>
+      <c r="O54" t="s">
+        <v>40</v>
+      </c>
+      <c r="P54" t="str">
+        <f>IF(L54=N54, "Site", IF(M54=O54, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q54" t="str">
+        <f>IF(P54="Day", O54, IF(P54="Site", N54, ""))</f>
+        <v/>
+      </c>
+      <c r="R54" t="str">
+        <f>IF(P54="Site", CONCATENATE(O54, " vs ", M54), IF(P54="Day", CONCATENATE(L54, " vs ", N54), ""))</f>
+        <v/>
+      </c>
+      <c r="S54" t="s">
+        <v>89</v>
+      </c>
+      <c r="T54" t="s">
+        <v>89</v>
+      </c>
+      <c r="U54" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B55" t="s">
+        <v>26</v>
+      </c>
+      <c r="C55" t="s">
+        <v>34</v>
+      </c>
+      <c r="D55" s="8">
+        <v>2.2827682585150701</v>
+      </c>
+      <c r="E55" s="8">
+        <v>0.52080050651744103</v>
+      </c>
+      <c r="F55" s="8">
+        <v>6.6536585266915194E-2</v>
+      </c>
+      <c r="G55" s="8">
+        <v>0.13188331809977899</v>
+      </c>
+      <c r="H55" s="9">
+        <v>2.3288354682741801</v>
+      </c>
+      <c r="I55" s="9">
+        <v>0.495188090921721</v>
+      </c>
+      <c r="J55" s="9">
+        <v>5.5509888376367E-2</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L55" t="s">
+        <v>38</v>
+      </c>
+      <c r="M55" t="s">
+        <v>43</v>
+      </c>
+      <c r="N55" t="s">
+        <v>45</v>
+      </c>
+      <c r="O55" t="s">
+        <v>41</v>
+      </c>
+      <c r="P55" t="str">
+        <f>IF(L55=N55, "Site", IF(M55=O55, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q55" t="str">
+        <f>IF(P55="Day", O55, IF(P55="Site", N55, ""))</f>
+        <v/>
+      </c>
+      <c r="R55" t="str">
+        <f>IF(P55="Site", CONCATENATE(O55, " vs ", M55), IF(P55="Day", CONCATENATE(L55, " vs ", N55), ""))</f>
+        <v/>
+      </c>
+      <c r="S55" t="s">
+        <v>89</v>
+      </c>
+      <c r="T55" t="s">
+        <v>89</v>
+      </c>
+      <c r="U55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56" t="s">
+        <v>35</v>
+      </c>
+      <c r="D56" s="8">
+        <v>1.7131167643544101</v>
+      </c>
+      <c r="E56" s="8">
+        <v>0.38417957431917799</v>
+      </c>
+      <c r="F56" s="8">
+        <v>8.8168035256790803E-2</v>
+      </c>
+      <c r="G56" s="8">
+        <v>0.155606867460577</v>
+      </c>
+      <c r="H56" s="9">
+        <v>0.87467644192068605</v>
+      </c>
+      <c r="I56" s="9">
+        <v>0.73492893433313899</v>
+      </c>
+      <c r="J56" s="8">
+        <v>3.9008582999999999E-2</v>
+      </c>
+      <c r="K56">
+        <v>7.2238866721961795E-2</v>
+      </c>
+      <c r="L56" t="s">
+        <v>38</v>
+      </c>
+      <c r="M56" t="s">
+        <v>43</v>
+      </c>
+      <c r="N56" t="s">
+        <v>45</v>
+      </c>
+      <c r="O56" t="s">
+        <v>42</v>
+      </c>
+      <c r="P56" t="str">
+        <f>IF(L56=N56, "Site", IF(M56=O56, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q56" t="str">
+        <f>IF(P56="Day", O56, IF(P56="Site", N56, ""))</f>
+        <v/>
+      </c>
+      <c r="R56" t="str">
+        <f>IF(P56="Site", CONCATENATE(O56, " vs ", M56), IF(P56="Day", CONCATENATE(L56, " vs ", N56), ""))</f>
+        <v/>
+      </c>
+      <c r="S56" t="s">
+        <v>89</v>
+      </c>
+      <c r="T56" t="s">
+        <v>89</v>
+      </c>
+      <c r="U56" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B57" t="s">
+        <v>28</v>
+      </c>
+      <c r="C57" t="s">
+        <v>34</v>
+      </c>
+      <c r="D57" s="8">
+        <v>2.2668960262604099</v>
+      </c>
+      <c r="E57" s="8">
+        <v>0.43795663021764702</v>
+      </c>
+      <c r="F57" s="8">
+        <v>7.0761346311127002E-2</v>
+      </c>
+      <c r="G57" s="8">
+        <v>0.1114679110875</v>
+      </c>
+      <c r="H57" s="9">
+        <v>4.4165638775201304</v>
+      </c>
+      <c r="I57" s="9">
+        <v>0.55685636814893102</v>
+      </c>
+      <c r="J57" s="8">
+        <v>4.2017516999999997E-2</v>
+      </c>
+      <c r="K57">
+        <v>7.1108382366649805E-2</v>
+      </c>
+      <c r="L57" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>40</v>
+      </c>
+      <c r="N57" t="s">
+        <v>45</v>
+      </c>
+      <c r="O57" t="s">
+        <v>41</v>
+      </c>
+      <c r="P57" t="str">
+        <f>IF(L57=N57, "Site", IF(M57=O57, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q57" t="str">
+        <f>IF(P57="Day", O57, IF(P57="Site", N57, ""))</f>
+        <v/>
+      </c>
+      <c r="R57" t="str">
+        <f>IF(P57="Site", CONCATENATE(O57, " vs ", M57), IF(P57="Day", CONCATENATE(L57, " vs ", N57), ""))</f>
+        <v/>
+      </c>
+      <c r="S57" t="s">
+        <v>89</v>
+      </c>
+      <c r="T57" t="s">
+        <v>89</v>
+      </c>
+      <c r="U57" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58" t="s">
+        <v>35</v>
+      </c>
+      <c r="D58" s="8">
+        <v>1.4847415273978199</v>
+      </c>
+      <c r="E58" s="8">
+        <v>0.58640553721373001</v>
+      </c>
+      <c r="F58" s="8">
+        <v>7.5677029262894796E-2</v>
+      </c>
+      <c r="G58" s="8">
+        <v>0.123471313636488</v>
+      </c>
+      <c r="H58" s="9">
+        <v>3.1708696646051702</v>
+      </c>
+      <c r="I58" s="9">
+        <v>0.31280761967412501</v>
+      </c>
+      <c r="J58" s="8">
+        <v>3.7692331000000003E-2</v>
+      </c>
+      <c r="K58">
+        <v>8.0625653355386601E-2</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>40</v>
+      </c>
+      <c r="N58" t="s">
+        <v>45</v>
+      </c>
+      <c r="O58" t="s">
+        <v>42</v>
+      </c>
+      <c r="P58" t="str">
+        <f>IF(L58=N58, "Site", IF(M58=O58, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q58" t="str">
+        <f>IF(P58="Day", O58, IF(P58="Site", N58, ""))</f>
+        <v/>
+      </c>
+      <c r="R58" t="str">
+        <f>IF(P58="Site", CONCATENATE(O58, " vs ", M58), IF(P58="Day", CONCATENATE(L58, " vs ", N58), ""))</f>
+        <v/>
+      </c>
+      <c r="S58" t="s">
+        <v>89</v>
+      </c>
+      <c r="T58" t="s">
+        <v>89</v>
+      </c>
+      <c r="U58" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>28</v>
+      </c>
+      <c r="C59" t="s">
+        <v>36</v>
+      </c>
+      <c r="D59" s="8">
+        <v>2.2117787122508399</v>
+      </c>
+      <c r="E59" s="8">
+        <v>0.71916841099344897</v>
+      </c>
+      <c r="F59" s="8">
+        <v>7.3710195933512301E-2</v>
+      </c>
+      <c r="G59" s="8">
+        <v>0.117125059988511</v>
+      </c>
+      <c r="H59" s="9">
+        <v>2.68114118650935</v>
+      </c>
+      <c r="I59" s="9">
+        <v>0.73359801623487297</v>
+      </c>
+      <c r="J59" s="9">
+        <v>5.6500948259035802E-2</v>
+      </c>
+      <c r="K59" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>40</v>
+      </c>
+      <c r="N59" t="s">
+        <v>45</v>
+      </c>
+      <c r="O59" t="s">
+        <v>43</v>
+      </c>
+      <c r="P59" t="str">
+        <f>IF(L59=N59, "Site", IF(M59=O59, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q59" t="str">
+        <f>IF(P59="Day", O59, IF(P59="Site", N59, ""))</f>
+        <v/>
+      </c>
+      <c r="R59" t="str">
+        <f>IF(P59="Site", CONCATENATE(O59, " vs ", M59), IF(P59="Day", CONCATENATE(L59, " vs ", N59), ""))</f>
+        <v/>
+      </c>
+      <c r="S59" t="s">
+        <v>89</v>
+      </c>
+      <c r="T59" t="s">
+        <v>89</v>
+      </c>
+      <c r="U59" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="s">
+        <v>33</v>
+      </c>
+      <c r="D60" s="8">
+        <v>-1.8273685252035601</v>
+      </c>
+      <c r="E60" s="8">
+        <v>0.25593891369802402</v>
+      </c>
+      <c r="F60" s="8">
+        <v>0.10664199562542399</v>
+      </c>
+      <c r="G60" s="8">
+        <v>0.17768467850809599</v>
+      </c>
+      <c r="H60" s="9">
+        <v>2.5389303998947002</v>
+      </c>
+      <c r="I60" s="9">
+        <v>0.48658479882845102</v>
+      </c>
+      <c r="J60" s="8">
+        <v>6.6882832000000003E-2</v>
+      </c>
+      <c r="K60" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>41</v>
+      </c>
+      <c r="N60" t="s">
+        <v>45</v>
+      </c>
+      <c r="O60" t="s">
+        <v>40</v>
+      </c>
+      <c r="P60" t="str">
+        <f>IF(L60=N60, "Site", IF(M60=O60, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q60" t="str">
+        <f>IF(P60="Day", O60, IF(P60="Site", N60, ""))</f>
+        <v/>
+      </c>
+      <c r="R60" t="str">
+        <f>IF(P60="Site", CONCATENATE(O60, " vs ", M60), IF(P60="Day", CONCATENATE(L60, " vs ", N60), ""))</f>
+        <v/>
+      </c>
+      <c r="S60" t="s">
+        <v>89</v>
+      </c>
+      <c r="T60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U60" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="61" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="s">
+        <v>35</v>
+      </c>
+      <c r="D61" s="8">
+        <v>-1.02292895018342</v>
+      </c>
+      <c r="E61" s="8">
+        <v>5.4481311076772197E-2</v>
+      </c>
+      <c r="F61" s="8">
+        <v>0.10399983981819901</v>
+      </c>
+      <c r="G61" s="8">
+        <v>0.183835631416119</v>
+      </c>
+      <c r="H61" s="9">
+        <v>2.3993609850555302</v>
+      </c>
+      <c r="I61" s="9">
+        <v>0.41779588038570398</v>
+      </c>
+      <c r="J61" s="8">
+        <v>4.7568262E-2</v>
+      </c>
+      <c r="K61">
+        <v>9.7638552339068402E-2</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>41</v>
+      </c>
+      <c r="N61" t="s">
+        <v>45</v>
+      </c>
+      <c r="O61" t="s">
+        <v>42</v>
+      </c>
+      <c r="P61" t="str">
+        <f>IF(L61=N61, "Site", IF(M61=O61, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q61" t="str">
+        <f>IF(P61="Day", O61, IF(P61="Site", N61, ""))</f>
+        <v/>
+      </c>
+      <c r="R61" t="str">
+        <f>IF(P61="Site", CONCATENATE(O61, " vs ", M61), IF(P61="Day", CONCATENATE(L61, " vs ", N61), ""))</f>
+        <v/>
+      </c>
+      <c r="S61" t="s">
+        <v>89</v>
+      </c>
+      <c r="T61" t="s">
+        <v>89</v>
+      </c>
+      <c r="U61" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="62" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="s">
+        <v>36</v>
+      </c>
+      <c r="D62" s="8">
+        <v>-0.27735239210753498</v>
+      </c>
+      <c r="E62" s="8">
+        <v>2.09132554548783E-2</v>
+      </c>
+      <c r="F62" s="8">
+        <v>8.0180594824088999E-2</v>
+      </c>
+      <c r="G62" s="8">
+        <v>0.168252217235733</v>
+      </c>
+      <c r="H62" s="9">
+        <v>1.80671724484716</v>
+      </c>
+      <c r="I62" s="9">
+        <v>0.36978941847555802</v>
+      </c>
+      <c r="J62" s="8">
+        <v>6.7208813000000006E-2</v>
+      </c>
+      <c r="K62" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="L62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>41</v>
+      </c>
+      <c r="N62" t="s">
+        <v>45</v>
+      </c>
+      <c r="O62" t="s">
+        <v>43</v>
+      </c>
+      <c r="P62" t="str">
+        <f>IF(L62=N62, "Site", IF(M62=O62, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q62" t="str">
+        <f>IF(P62="Day", O62, IF(P62="Site", N62, ""))</f>
+        <v/>
+      </c>
+      <c r="R62" t="str">
+        <f>IF(P62="Site", CONCATENATE(O62, " vs ", M62), IF(P62="Day", CONCATENATE(L62, " vs ", N62), ""))</f>
+        <v/>
+      </c>
+      <c r="S62" t="s">
+        <v>89</v>
+      </c>
+      <c r="T62" t="s">
+        <v>89</v>
+      </c>
+      <c r="U62" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="63" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B63" t="s">
+        <v>30</v>
+      </c>
+      <c r="C63" t="s">
+        <v>33</v>
+      </c>
+      <c r="D63" s="8">
+        <v>-1.11974954880192</v>
+      </c>
+      <c r="E63" s="8">
+        <v>0.52479711098023996</v>
+      </c>
+      <c r="F63" s="8">
+        <v>0.117185437771996</v>
+      </c>
+      <c r="G63" s="8">
+        <v>0.18139471809337801</v>
+      </c>
+      <c r="H63" s="9">
+        <v>0.639790257434113</v>
+      </c>
+      <c r="I63" s="9">
+        <v>0.99369610236157102</v>
+      </c>
+      <c r="J63" s="8">
+        <v>6.2975799999999998E-2</v>
+      </c>
+      <c r="K63" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" t="s">
+        <v>42</v>
+      </c>
+      <c r="N63" t="s">
+        <v>45</v>
+      </c>
+      <c r="O63" t="s">
+        <v>40</v>
+      </c>
+      <c r="P63" t="str">
+        <f>IF(L63=N63, "Site", IF(M63=O63, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q63" t="str">
+        <f>IF(P63="Day", O63, IF(P63="Site", N63, ""))</f>
+        <v/>
+      </c>
+      <c r="R63" t="str">
+        <f>IF(P63="Site", CONCATENATE(O63, " vs ", M63), IF(P63="Day", CONCATENATE(L63, " vs ", N63), ""))</f>
+        <v/>
+      </c>
+      <c r="S63" t="s">
+        <v>89</v>
+      </c>
+      <c r="T63" t="s">
+        <v>89</v>
+      </c>
+      <c r="U63" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="64" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B64" t="s">
+        <v>30</v>
+      </c>
+      <c r="C64" t="s">
+        <v>34</v>
+      </c>
+      <c r="D64" s="8">
+        <v>0.41084224822075899</v>
+      </c>
+      <c r="E64" s="8">
+        <v>0.50669410160925399</v>
+      </c>
+      <c r="F64" s="8">
+        <v>8.2259817685707004E-2</v>
+      </c>
+      <c r="G64" s="8">
+        <v>0.14791499417003701</v>
+      </c>
+      <c r="H64" s="9">
+        <v>1.63689990109401</v>
+      </c>
+      <c r="I64" s="9">
+        <v>0.840915758601676</v>
+      </c>
+      <c r="J64" s="8">
+        <v>8.5974043999999999E-2</v>
+      </c>
+      <c r="K64" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L64" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" t="s">
+        <v>42</v>
+      </c>
+      <c r="N64" t="s">
+        <v>45</v>
+      </c>
+      <c r="O64" t="s">
+        <v>41</v>
+      </c>
+      <c r="P64" t="str">
+        <f>IF(L64=N64, "Site", IF(M64=O64, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q64" t="str">
+        <f>IF(P64="Day", O64, IF(P64="Site", N64, ""))</f>
+        <v/>
+      </c>
+      <c r="R64" t="str">
+        <f>IF(P64="Site", CONCATENATE(O64, " vs ", M64), IF(P64="Day", CONCATENATE(L64, " vs ", N64), ""))</f>
+        <v/>
+      </c>
+      <c r="S64" t="s">
+        <v>89</v>
+      </c>
+      <c r="T64" t="s">
+        <v>89</v>
+      </c>
+      <c r="U64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B65" t="s">
+        <v>30</v>
+      </c>
+      <c r="C65" t="s">
+        <v>36</v>
+      </c>
+      <c r="D65" s="8">
+        <v>0.47296722596496299</v>
+      </c>
+      <c r="E65" s="8">
+        <v>0.200544454582534</v>
+      </c>
+      <c r="F65" s="8">
+        <v>9.3200026783689494E-2</v>
+      </c>
+      <c r="G65" s="8">
+        <v>0.16890307216783801</v>
+      </c>
+      <c r="H65" s="8">
+        <v>-0.19914368900000001</v>
+      </c>
+      <c r="I65" s="8">
+        <v>0.85322593000000002</v>
+      </c>
+      <c r="J65" s="9">
+        <v>0.103477082214513</v>
+      </c>
+      <c r="K65" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="L65" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" t="s">
+        <v>42</v>
+      </c>
+      <c r="N65" t="s">
+        <v>45</v>
+      </c>
+      <c r="O65" t="s">
+        <v>43</v>
+      </c>
+      <c r="P65" t="str">
+        <f>IF(L65=N65, "Site", IF(M65=O65, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q65" t="str">
+        <f>IF(P65="Day", O65, IF(P65="Site", N65, ""))</f>
+        <v/>
+      </c>
+      <c r="R65" t="str">
+        <f>IF(P65="Site", CONCATENATE(O65, " vs ", M65), IF(P65="Day", CONCATENATE(L65, " vs ", N65), ""))</f>
+        <v/>
+      </c>
+      <c r="S65" t="s">
+        <v>89</v>
+      </c>
+      <c r="T65" t="s">
+        <v>89</v>
+      </c>
+      <c r="U65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C66" t="s">
+        <v>33</v>
+      </c>
+      <c r="D66" s="8">
+        <v>-1.6429604340797199</v>
+      </c>
+      <c r="E66" s="8">
+        <v>0.53453622810815404</v>
+      </c>
+      <c r="F66" s="8">
+        <v>0.110780061373668</v>
+      </c>
+      <c r="G66" s="8">
+        <v>0.19172042860005001</v>
+      </c>
+      <c r="H66" s="9">
+        <v>1.63732451000749</v>
+      </c>
+      <c r="I66" s="9">
+        <v>0.85252938833462699</v>
+      </c>
+      <c r="J66" s="8">
+        <v>3.4521081000000002E-2</v>
+      </c>
+      <c r="K66">
+        <v>8.6006711178995096E-2</v>
+      </c>
+      <c r="L66" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" t="s">
+        <v>43</v>
+      </c>
+      <c r="N66" t="s">
+        <v>45</v>
+      </c>
+      <c r="O66" t="s">
+        <v>40</v>
+      </c>
+      <c r="P66" t="str">
+        <f>IF(L66=N66, "Site", IF(M66=O66, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q66" t="str">
+        <f>IF(P66="Day", O66, IF(P66="Site", N66, ""))</f>
+        <v/>
+      </c>
+      <c r="R66" t="str">
+        <f>IF(P66="Site", CONCATENATE(O66, " vs ", M66), IF(P66="Day", CONCATENATE(L66, " vs ", N66), ""))</f>
+        <v/>
+      </c>
+      <c r="S66" t="s">
+        <v>89</v>
+      </c>
+      <c r="T66" t="s">
+        <v>89</v>
+      </c>
+      <c r="U66" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B67" t="s">
+        <v>31</v>
+      </c>
+      <c r="C67" t="s">
+        <v>34</v>
+      </c>
+      <c r="D67" s="8">
+        <v>-0.24445680540110201</v>
+      </c>
+      <c r="E67" s="8">
+        <v>0.71906593040737499</v>
+      </c>
+      <c r="F67" s="8">
+        <v>8.1987947516542897E-2</v>
+      </c>
+      <c r="G67" s="8">
+        <v>0.199153217661934</v>
+      </c>
+      <c r="H67" s="9">
+        <v>3.0469415100693999</v>
+      </c>
+      <c r="I67" s="9">
+        <v>0.70296281345372202</v>
+      </c>
+      <c r="J67" s="8">
+        <v>4.3525006999999998E-2</v>
+      </c>
+      <c r="K67">
+        <v>9.0052534237959406E-2</v>
+      </c>
+      <c r="L67" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" t="s">
+        <v>43</v>
+      </c>
+      <c r="N67" t="s">
+        <v>45</v>
+      </c>
+      <c r="O67" t="s">
+        <v>41</v>
+      </c>
+      <c r="P67" t="str">
+        <f>IF(L67=N67, "Site", IF(M67=O67, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q67" t="str">
+        <f>IF(P67="Day", O67, IF(P67="Site", N67, ""))</f>
+        <v/>
+      </c>
+      <c r="R67" t="str">
+        <f>IF(P67="Site", CONCATENATE(O67, " vs ", M67), IF(P67="Day", CONCATENATE(L67, " vs ", N67), ""))</f>
+        <v/>
+      </c>
+      <c r="S67" t="s">
+        <v>89</v>
+      </c>
+      <c r="T67" t="s">
+        <v>89</v>
+      </c>
+      <c r="U67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="B68" t="s">
+        <v>31</v>
+      </c>
+      <c r="C68" t="s">
+        <v>35</v>
+      </c>
+      <c r="D68" s="8">
+        <v>-0.839175983790032</v>
+      </c>
+      <c r="E68" s="8">
+        <v>0.58784898956390697</v>
+      </c>
+      <c r="F68" s="8">
+        <v>0.109251496159554</v>
+      </c>
+      <c r="G68" s="8">
+        <v>0.21556279565417699</v>
+      </c>
+      <c r="H68" s="9">
+        <v>1.5262030208184401</v>
+      </c>
+      <c r="I68" s="9">
+        <v>0.58104962172506502</v>
+      </c>
+      <c r="J68" s="9">
+        <v>2.8852328889919399E-2</v>
+      </c>
+      <c r="K68">
+        <v>6.11398067770723E-2</v>
+      </c>
+      <c r="L68" t="s">
+        <v>44</v>
+      </c>
+      <c r="M68" t="s">
+        <v>43</v>
+      </c>
+      <c r="N68" t="s">
+        <v>45</v>
+      </c>
+      <c r="O68" t="s">
+        <v>42</v>
+      </c>
+      <c r="P68" t="str">
+        <f>IF(L68=N68, "Site", IF(M68=O68, "Day", ""))</f>
+        <v/>
+      </c>
+      <c r="Q68" t="str">
+        <f>IF(P68="Day", O68, IF(P68="Site", N68, ""))</f>
+        <v/>
+      </c>
+      <c r="R68" t="str">
+        <f>IF(P68="Site", CONCATENATE(O68, " vs ", M68), IF(P68="Day", CONCATENATE(L68, " vs ", N68), ""))</f>
+        <v/>
+      </c>
+      <c r="S68" t="s">
+        <v>89</v>
+      </c>
+      <c r="T68" t="s">
+        <v>89</v>
+      </c>
+      <c r="U68" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="B2:AB2" xr:uid="{F025469E-652C-5F4A-9E15-9EC6494F939D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:AB68">
+    <sortCondition descending="1" ref="T3:T68"/>
+    <sortCondition descending="1" ref="U3:U68"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BC6478F-9C54-DD45-81FA-50E2F709ECE0}">
+  <dimension ref="A2:AC18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13:AC18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" customWidth="1"/>
+    <col min="5" max="8" width="9.83203125" customWidth="1"/>
+    <col min="9" max="9" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="0" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="0" hidden="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="J2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N2" t="s">
+        <v>7</v>
+      </c>
+      <c r="R2" t="s">
+        <v>8</v>
+      </c>
+      <c r="U2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>110</v>
+      </c>
+      <c r="G3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H3" t="s">
+        <v>112</v>
+      </c>
+      <c r="I3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" t="s">
+        <v>55</v>
+      </c>
+      <c r="N3" t="s">
+        <v>2</v>
+      </c>
+      <c r="O3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P3" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>55</v>
+      </c>
+      <c r="R3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S3" t="s">
+        <v>97</v>
+      </c>
+      <c r="T3" t="s">
+        <v>98</v>
+      </c>
+      <c r="U3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V3" t="s">
+        <v>97</v>
+      </c>
+      <c r="W3" t="s">
+        <v>98</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>108</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>3</v>
+      </c>
+      <c r="AB3" t="s">
+        <v>2</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" t="s">
+        <v>103</v>
+      </c>
+      <c r="F4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" t="s">
+        <v>105</v>
+      </c>
+      <c r="H4" t="s">
+        <v>106</v>
+      </c>
+      <c r="I4" t="str">
+        <f>CONCATENATE(F4, " (", G4, " vs ", H4, ")")</f>
+        <v>Lameshur Bay (Dawn vs Afternoon)</v>
+      </c>
+      <c r="J4">
+        <v>-0.53043075170413501</v>
+      </c>
+      <c r="K4">
+        <v>0.44503196547178397</v>
+      </c>
+      <c r="L4">
+        <v>6.24029789849695E-2</v>
+      </c>
+      <c r="M4">
+        <v>0.11453231453764</v>
+      </c>
+      <c r="N4">
+        <v>-4.2707297851166803</v>
+      </c>
+      <c r="O4">
+        <v>0.33086524656541499</v>
+      </c>
+      <c r="P4">
+        <v>6.99503763356018E-3</v>
+      </c>
+      <c r="Q4">
+        <v>1.8083104168276499E-3</v>
+      </c>
+      <c r="R4" t="str">
+        <f>IF(K4&lt;0.1,J4,"")</f>
+        <v/>
+      </c>
+      <c r="S4" s="1" t="str">
+        <f>IF(K4&lt;L4,K4,"")</f>
+        <v/>
+      </c>
+      <c r="T4" s="1" t="str">
+        <f>IF(K4&lt;0.05,K4,"")</f>
+        <v/>
+      </c>
+      <c r="U4" t="str">
+        <f>IF(O4&lt;0.1,N4,"")</f>
+        <v/>
+      </c>
+      <c r="V4" s="1" t="str">
+        <f>IF(O4&lt;P4,O4,"")</f>
+        <v/>
+      </c>
+      <c r="W4" s="1" t="str">
+        <f>IF(O4&lt;0.05,O4,"")</f>
+        <v/>
+      </c>
+      <c r="X4">
+        <f>A4</f>
+        <v>1</v>
+      </c>
+      <c r="Y4" t="str">
+        <f>I4</f>
+        <v>Lameshur Bay (Dawn vs Afternoon)</v>
+      </c>
+      <c r="Z4" s="7">
+        <f>J4</f>
+        <v>-0.53043075170413501</v>
+      </c>
+      <c r="AA4" s="1">
+        <f>K4</f>
+        <v>0.44503196547178397</v>
+      </c>
+      <c r="AB4" s="7">
+        <f>N4</f>
+        <v>-4.2707297851166803</v>
+      </c>
+      <c r="AC4" s="1">
+        <f>O4</f>
+        <v>0.33086524656541499</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
+        <v>103</v>
+      </c>
+      <c r="F5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G5" t="s">
+        <v>105</v>
+      </c>
+      <c r="H5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I5" t="str">
+        <f>CONCATENATE(F5, " (", G5, " vs ", H5, ")")</f>
+        <v>Yawzi (Dawn vs Afternoon)</v>
+      </c>
+      <c r="J5">
+        <v>-6.7170775846376198</v>
+      </c>
+      <c r="K5">
+        <v>0.659258858427062</v>
+      </c>
+      <c r="L5">
+        <v>2.27432203655704E-3</v>
+      </c>
+      <c r="M5">
+        <v>5.4087559175695302E-3</v>
+      </c>
+      <c r="N5">
+        <v>3.0872966286331098</v>
+      </c>
+      <c r="O5">
+        <v>4.70516870976549E-2</v>
+      </c>
+      <c r="P5">
+        <v>3.9726997565541697E-2</v>
+      </c>
+      <c r="Q5">
+        <v>0.106624237257275</v>
+      </c>
+      <c r="R5" t="str">
+        <f>IF(K5&lt;0.1,J5,"")</f>
+        <v/>
+      </c>
+      <c r="S5" s="1" t="str">
+        <f>IF(K5&lt;L5,K5,"")</f>
+        <v/>
+      </c>
+      <c r="T5" s="1" t="str">
+        <f>IF(K5&lt;0.05,K5,"")</f>
+        <v/>
+      </c>
+      <c r="U5">
+        <f>IF(O5&lt;0.1,N5,"")</f>
+        <v>3.0872966286331098</v>
+      </c>
+      <c r="V5" s="1" t="str">
+        <f>IF(O5&lt;P5,O5,"")</f>
+        <v/>
+      </c>
+      <c r="W5" s="1">
+        <f>IF(O5&lt;0.05,O5,"")</f>
+        <v>4.70516870976549E-2</v>
+      </c>
+      <c r="X5">
+        <f t="shared" ref="X5:X18" si="0">A5</f>
+        <v>2</v>
+      </c>
+      <c r="Y5" t="str">
+        <f t="shared" ref="Y5:Y18" si="1">I5</f>
+        <v>Yawzi (Dawn vs Afternoon)</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" ref="Z5:Z12" si="2">J5</f>
+        <v>-6.7170775846376198</v>
+      </c>
+      <c r="AA5" s="1">
+        <f t="shared" ref="AA5:AA12" si="3">K5</f>
+        <v>0.659258858427062</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" ref="AB5:AB12" si="4">N5</f>
+        <v>3.0872966286331098</v>
+      </c>
+      <c r="AC5" s="1">
+        <f t="shared" ref="AC5:AC12" si="5">O5</f>
+        <v>4.70516870976549E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
+        <v>103</v>
+      </c>
+      <c r="F6" t="s">
+        <v>44</v>
+      </c>
+      <c r="G6" t="s">
+        <v>105</v>
+      </c>
+      <c r="H6" t="s">
+        <v>106</v>
+      </c>
+      <c r="I6" t="str">
+        <f>CONCATENATE(F6, " (", G6, " vs ", H6, ")")</f>
+        <v>Tektite (Dawn vs Afternoon)</v>
+      </c>
+      <c r="J6">
+        <v>1.3018941641742401</v>
+      </c>
+      <c r="K6">
+        <v>0.71340746755506601</v>
+      </c>
+      <c r="L6">
+        <v>5.3413922400834202E-2</v>
+      </c>
+      <c r="M6">
+        <v>0.100838118265903</v>
+      </c>
+      <c r="N6">
+        <v>-1.16649296301143</v>
+      </c>
+      <c r="O6">
+        <v>0.108259188638005</v>
+      </c>
+      <c r="P6">
+        <v>6.4180328017702806E-2</v>
+      </c>
+      <c r="Q6">
+        <v>7.3614114156535099E-3</v>
+      </c>
+      <c r="R6" t="str">
+        <f>IF(K6&lt;0.1,J6,"")</f>
+        <v/>
+      </c>
+      <c r="S6" s="1" t="str">
+        <f>IF(K6&lt;L6,K6,"")</f>
+        <v/>
+      </c>
+      <c r="T6" s="1" t="str">
+        <f>IF(K6&lt;0.05,K6,"")</f>
+        <v/>
+      </c>
+      <c r="U6" t="str">
+        <f>IF(O6&lt;0.1,N6,"")</f>
+        <v/>
+      </c>
+      <c r="V6" s="1" t="str">
+        <f>IF(O6&lt;P6,O6,"")</f>
+        <v/>
+      </c>
+      <c r="W6" s="1" t="str">
+        <f>IF(O6&lt;0.05,O6,"")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Y6" t="str">
+        <f t="shared" si="1"/>
+        <v>Tektite (Dawn vs Afternoon)</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="2"/>
+        <v>1.3018941641742401</v>
+      </c>
+      <c r="AA6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.71340746755506601</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="4"/>
+        <v>-1.16649296301143</v>
+      </c>
+      <c r="AC6" s="1">
+        <f t="shared" si="5"/>
+        <v>0.108259188638005</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>103</v>
+      </c>
+      <c r="E7" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>45</v>
+      </c>
+      <c r="I7" t="str">
+        <f>CONCATENATE(F7, " (", G7, " vs ", H7, ")")</f>
+        <v>Dawn (Lameshur vs Yawzi)</v>
+      </c>
+      <c r="J7">
+        <v>-0.475722025383509</v>
+      </c>
+      <c r="K7">
+        <v>0.96861665725713697</v>
+      </c>
+      <c r="L7">
+        <v>5.9214958297751398E-2</v>
+      </c>
+      <c r="M7">
+        <v>0.11783856368355999</v>
+      </c>
+      <c r="N7">
+        <v>1.39195658451378</v>
+      </c>
+      <c r="O7">
+        <v>0.93469370309772903</v>
+      </c>
+      <c r="P7">
+        <v>3.6009800577728797E-2</v>
+      </c>
+      <c r="Q7">
+        <v>8.0602490086298606E-2</v>
+      </c>
+      <c r="R7" t="str">
+        <f>IF(K7&lt;0.1,J7,"")</f>
+        <v/>
+      </c>
+      <c r="S7" s="1" t="str">
+        <f>IF(K7&lt;L7,K7,"")</f>
+        <v/>
+      </c>
+      <c r="T7" s="1" t="str">
+        <f>IF(K7&lt;0.05,K7,"")</f>
+        <v/>
+      </c>
+      <c r="U7" t="str">
+        <f>IF(O7&lt;0.1,N7,"")</f>
+        <v/>
+      </c>
+      <c r="V7" s="1" t="str">
+        <f>IF(O7&lt;P7,O7,"")</f>
+        <v/>
+      </c>
+      <c r="W7" s="1" t="str">
+        <f>IF(O7&lt;0.05,O7,"")</f>
+        <v/>
+      </c>
+      <c r="X7">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Y7" t="str">
+        <f t="shared" si="1"/>
+        <v>Dawn (Lameshur vs Yawzi)</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="2"/>
+        <v>-0.475722025383509</v>
+      </c>
+      <c r="AA7" s="1">
+        <f t="shared" si="3"/>
+        <v>0.96861665725713697</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="4"/>
+        <v>1.39195658451378</v>
+      </c>
+      <c r="AC7" s="1">
+        <f t="shared" si="5"/>
+        <v>0.93469370309772903</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" t="s">
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I8" t="str">
+        <f>CONCATENATE(F8, " (", G8, " vs ", H8, ")")</f>
+        <v>Dawn (Lameshur vs Tektite)</v>
+      </c>
+      <c r="J8">
+        <v>-7.1881756858978996</v>
+      </c>
+      <c r="K8">
+        <v>5.3216763062554198E-2</v>
+      </c>
+      <c r="L8">
+        <v>2.7583280056500698E-3</v>
+      </c>
+      <c r="M8">
+        <v>6.08387749027226E-3</v>
+      </c>
+      <c r="N8">
+        <v>1.4107299007318601</v>
+      </c>
+      <c r="O8">
+        <v>0.35047157624317399</v>
+      </c>
+      <c r="P8">
+        <v>3.8437426732744501E-2</v>
+      </c>
+      <c r="Q8">
+        <v>1.6259863493114E-2</v>
+      </c>
+      <c r="R8">
+        <f>IF(K8&lt;0.1,J8,"")</f>
+        <v>-7.1881756858978996</v>
+      </c>
+      <c r="S8" s="1" t="str">
+        <f>IF(K8&lt;L8,K8,"")</f>
+        <v/>
+      </c>
+      <c r="T8" s="1" t="str">
+        <f>IF(K8&lt;0.05,K8,"")</f>
+        <v/>
+      </c>
+      <c r="U8" t="str">
+        <f>IF(O8&lt;0.1,N8,"")</f>
+        <v/>
+      </c>
+      <c r="V8" s="1" t="str">
+        <f>IF(O8&lt;P8,O8,"")</f>
+        <v/>
+      </c>
+      <c r="W8" s="1" t="str">
+        <f>IF(O8&lt;0.05,O8,"")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="Y8" t="str">
+        <f t="shared" si="1"/>
+        <v>Dawn (Lameshur vs Tektite)</v>
+      </c>
+      <c r="Z8" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.1881756858978996</v>
+      </c>
+      <c r="AA8" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3216763062554198E-2</v>
+      </c>
+      <c r="AB8" s="7">
+        <f t="shared" si="4"/>
+        <v>1.4107299007318601</v>
+      </c>
+      <c r="AC8" s="1">
+        <f t="shared" si="5"/>
+        <v>0.35047157624317399</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s">
+        <v>46</v>
+      </c>
+      <c r="F9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G9" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" t="s">
+        <v>45</v>
+      </c>
+      <c r="I9" t="str">
+        <f>CONCATENATE(F9, " (", G9, " vs ", H9, ")")</f>
+        <v>Dawn (Tektite vs Yawzi)</v>
+      </c>
+      <c r="J9">
+        <v>6.3991600232810901</v>
+      </c>
+      <c r="K9">
+        <v>5.89670859281906E-3</v>
+      </c>
+      <c r="L9">
+        <v>3.42936715342334E-3</v>
+      </c>
+      <c r="M9">
+        <v>7.24432012697954E-3</v>
+      </c>
+      <c r="N9">
+        <v>5.6958426492966802E-3</v>
+      </c>
+      <c r="O9">
+        <v>0.83983634496400605</v>
+      </c>
+      <c r="P9">
+        <v>8.0038671939873393E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.6070732401727E-2</v>
+      </c>
+      <c r="R9">
+        <f>IF(K9&lt;0.1,J9,"")</f>
+        <v>6.3991600232810901</v>
+      </c>
+      <c r="S9" s="1" t="str">
+        <f>IF(K9&lt;L9,K9,"")</f>
+        <v/>
+      </c>
+      <c r="T9" s="1">
+        <f>IF(K9&lt;0.05,K9,"")</f>
+        <v>5.89670859281906E-3</v>
+      </c>
+      <c r="U9" t="str">
+        <f>IF(O9&lt;0.1,N9,"")</f>
+        <v/>
+      </c>
+      <c r="V9" s="1" t="str">
+        <f>IF(O9&lt;P9,O9,"")</f>
+        <v/>
+      </c>
+      <c r="W9" s="1" t="str">
+        <f>IF(O9&lt;0.05,O9,"")</f>
+        <v/>
+      </c>
+      <c r="X9">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Y9" t="str">
+        <f t="shared" si="1"/>
+        <v>Dawn (Tektite vs Yawzi)</v>
+      </c>
+      <c r="Z9" s="7">
+        <f t="shared" si="2"/>
+        <v>6.3991600232810901</v>
+      </c>
+      <c r="AA9" s="1">
+        <f t="shared" si="3"/>
+        <v>5.89670859281906E-3</v>
+      </c>
+      <c r="AB9" s="7">
+        <f t="shared" si="4"/>
+        <v>5.6958426492966802E-3</v>
+      </c>
+      <c r="AC9" s="1">
+        <f t="shared" si="5"/>
+        <v>0.83983634496400605</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C10" t="s">
+        <v>100</v>
+      </c>
+      <c r="D10" t="s">
+        <v>103</v>
+      </c>
+      <c r="E10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" t="str">
+        <f>CONCATENATE(F10, " (", G10, " vs ", H10, ")")</f>
+        <v>Afternoon (Lameshur vs Yawzi)</v>
+      </c>
+      <c r="J10">
+        <v>-7.2147436909388203</v>
+      </c>
+      <c r="K10">
+        <v>1.2749783431393699E-2</v>
+      </c>
+      <c r="L10">
+        <v>1.75267473179032E-3</v>
+      </c>
+      <c r="M10">
+        <v>4.5164244109964797E-3</v>
+      </c>
+      <c r="N10">
+        <v>8.2881061255092501</v>
+      </c>
+      <c r="O10">
+        <v>1.5918016044730501E-2</v>
+      </c>
+      <c r="P10" s="10">
+        <v>7.1585669426912403E-4</v>
+      </c>
+      <c r="Q10">
+        <v>7.7990147195406603E-2</v>
+      </c>
+      <c r="R10">
+        <f>IF(K10&lt;0.1,J10,"")</f>
+        <v>-7.2147436909388203</v>
+      </c>
+      <c r="S10" s="1" t="str">
+        <f>IF(K10&lt;L10,K10,"")</f>
+        <v/>
+      </c>
+      <c r="T10" s="1">
+        <f>IF(K10&lt;0.05,K10,"")</f>
+        <v>1.2749783431393699E-2</v>
+      </c>
+      <c r="U10">
+        <f>IF(O10&lt;0.1,N10,"")</f>
+        <v>8.2881061255092501</v>
+      </c>
+      <c r="V10" s="1" t="str">
+        <f>IF(O10&lt;P10,O10,"")</f>
+        <v/>
+      </c>
+      <c r="W10" s="1">
+        <f>IF(O10&lt;0.05,O10,"")</f>
+        <v>1.5918016044730501E-2</v>
+      </c>
+      <c r="X10">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="Y10" t="str">
+        <f t="shared" si="1"/>
+        <v>Afternoon (Lameshur vs Yawzi)</v>
+      </c>
+      <c r="Z10" s="7">
+        <f t="shared" si="2"/>
+        <v>-7.2147436909388203</v>
+      </c>
+      <c r="AA10" s="1">
+        <f t="shared" si="3"/>
+        <v>1.2749783431393699E-2</v>
+      </c>
+      <c r="AB10" s="7">
+        <f t="shared" si="4"/>
+        <v>8.2881061255092501</v>
+      </c>
+      <c r="AC10" s="1">
+        <f t="shared" si="5"/>
+        <v>1.5918016044730501E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D11" t="s">
+        <v>103</v>
+      </c>
+      <c r="E11" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" t="s">
+        <v>106</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>44</v>
+      </c>
+      <c r="I11" t="str">
+        <f>CONCATENATE(F11, " (", G11, " vs ", H11, ")")</f>
+        <v>Afternoon (Lameshur vs Tektite)</v>
+      </c>
+      <c r="J11">
+        <v>-6.59460113541894</v>
+      </c>
+      <c r="K11">
+        <v>0.87684532779608804</v>
+      </c>
+      <c r="L11">
+        <v>3.6704661721758298E-3</v>
+      </c>
+      <c r="M11">
+        <v>8.0526480111084604E-3</v>
+      </c>
+      <c r="N11">
+        <v>4.1724375725851299</v>
+      </c>
+      <c r="O11">
+        <v>0.238754156320266</v>
+      </c>
+      <c r="P11">
+        <v>5.3803311405794096E-3</v>
+      </c>
+      <c r="Q11">
+        <v>0.12108330080548201</v>
+      </c>
+      <c r="R11" t="str">
+        <f>IF(K11&lt;0.1,J11,"")</f>
+        <v/>
+      </c>
+      <c r="S11" s="1" t="str">
+        <f>IF(K11&lt;L11,K11,"")</f>
+        <v/>
+      </c>
+      <c r="T11" s="1" t="str">
+        <f>IF(K11&lt;0.05,K11,"")</f>
+        <v/>
+      </c>
+      <c r="U11" t="str">
+        <f>IF(O11&lt;0.1,N11,"")</f>
+        <v/>
+      </c>
+      <c r="V11" s="1" t="str">
+        <f>IF(O11&lt;P11,O11,"")</f>
+        <v/>
+      </c>
+      <c r="W11" s="1" t="str">
+        <f>IF(O11&lt;0.05,O11,"")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Y11" t="str">
+        <f t="shared" si="1"/>
+        <v>Afternoon (Lameshur vs Tektite)</v>
+      </c>
+      <c r="Z11" s="7">
+        <f t="shared" si="2"/>
+        <v>-6.59460113541894</v>
+      </c>
+      <c r="AA11" s="1">
+        <f t="shared" si="3"/>
+        <v>0.87684532779608804</v>
+      </c>
+      <c r="AB11" s="7">
+        <f t="shared" si="4"/>
+        <v>4.1724375725851299</v>
+      </c>
+      <c r="AC11" s="1">
+        <f t="shared" si="5"/>
+        <v>0.238754156320266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
+      </c>
+      <c r="E12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" t="s">
+        <v>106</v>
+      </c>
+      <c r="G12" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" t="str">
+        <f>CONCATENATE(F12, " (", G12, " vs ", H12, ")")</f>
+        <v>Afternoon (Tektite vs Yawzi)</v>
+      </c>
+      <c r="J12">
+        <v>-1.31343777289803</v>
+      </c>
+      <c r="K12">
+        <v>0.25219575700274099</v>
+      </c>
+      <c r="L12">
+        <v>4.9374040491381298E-2</v>
+      </c>
+      <c r="M12">
+        <v>9.9594771042745098E-2</v>
+      </c>
+      <c r="N12">
+        <v>4.2385595595527796</v>
+      </c>
+      <c r="O12">
+        <v>0.38564400723633702</v>
+      </c>
+      <c r="P12">
+        <v>2.1228530095479699E-2</v>
+      </c>
+      <c r="Q12">
+        <v>1.37911059066659E-2</v>
+      </c>
+      <c r="R12" t="str">
+        <f>IF(K12&lt;0.1,J12,"")</f>
+        <v/>
+      </c>
+      <c r="S12" s="1" t="str">
+        <f>IF(K12&lt;L12,K12,"")</f>
+        <v/>
+      </c>
+      <c r="T12" s="1" t="str">
+        <f>IF(K12&lt;0.05,K12,"")</f>
+        <v/>
+      </c>
+      <c r="U12" t="str">
+        <f>IF(O12&lt;0.1,N12,"")</f>
+        <v/>
+      </c>
+      <c r="V12" s="1" t="str">
+        <f>IF(O12&lt;P12,O12,"")</f>
+        <v/>
+      </c>
+      <c r="W12" s="1" t="str">
+        <f>IF(O12&lt;0.05,O12,"")</f>
+        <v/>
+      </c>
+      <c r="X12">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="Y12" t="str">
+        <f t="shared" si="1"/>
+        <v>Afternoon (Tektite vs Yawzi)</v>
+      </c>
+      <c r="Z12" s="7">
+        <f t="shared" si="2"/>
+        <v>-1.31343777289803</v>
+      </c>
+      <c r="AA12" s="1">
+        <f t="shared" si="3"/>
+        <v>0.25219575700274099</v>
+      </c>
+      <c r="AB12" s="7">
+        <f t="shared" si="4"/>
+        <v>4.2385595595527796</v>
+      </c>
+      <c r="AC12" s="1">
+        <f t="shared" si="5"/>
+        <v>0.38564400723633702</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>100</v>
+      </c>
+      <c r="G13" t="s">
+        <v>115</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="str">
+        <f>CONCATENATE(G13, " vs ", H13)</f>
+        <v>Lameshur dawn vs Yawzi afternoon</v>
+      </c>
+      <c r="J13">
+        <v>-7.6185242508991404</v>
+      </c>
+      <c r="K13" s="10">
+        <v>6.2565654857652E-5</v>
+      </c>
+      <c r="L13">
+        <v>1.6664132991368701E-3</v>
+      </c>
+      <c r="M13">
+        <v>3.80350109899417E-3</v>
+      </c>
+      <c r="N13">
+        <v>4.94546622304994</v>
+      </c>
+      <c r="O13">
+        <v>0.29270111989184699</v>
+      </c>
+      <c r="P13">
+        <v>7.4007069674791801E-3</v>
+      </c>
+      <c r="Q13">
+        <v>6.5203972572568797E-2</v>
+      </c>
+      <c r="R13">
+        <f>IF(K13&lt;0.1,J13,"")</f>
+        <v>-7.6185242508991404</v>
+      </c>
+      <c r="S13" s="1">
+        <f>IF(K13&lt;L13,K13,"")</f>
+        <v>6.2565654857652E-5</v>
+      </c>
+      <c r="T13" s="1">
+        <f>IF(K13&lt;0.05,K13,"")</f>
+        <v>6.2565654857652E-5</v>
+      </c>
+      <c r="U13" t="str">
+        <f>IF(O13&lt;0.1,N13,"")</f>
+        <v/>
+      </c>
+      <c r="V13" s="1" t="str">
+        <f>IF(O13&lt;P13,O13,"")</f>
+        <v/>
+      </c>
+      <c r="W13" s="1" t="str">
+        <f>IF(O13&lt;0.05,O13,"")</f>
+        <v/>
+      </c>
+      <c r="X13">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="Y13" t="str">
+        <f t="shared" si="1"/>
+        <v>Lameshur dawn vs Yawzi afternoon</v>
+      </c>
+      <c r="Z13" s="7">
+        <f t="shared" ref="Z13:Z18" si="6">J13</f>
+        <v>-7.6185242508991404</v>
+      </c>
+      <c r="AA13" s="2">
+        <f t="shared" ref="AA13:AA18" si="7">K13</f>
+        <v>6.2565654857652E-5</v>
+      </c>
+      <c r="AB13" s="7">
+        <f t="shared" ref="AB13:AB18" si="8">N13</f>
+        <v>4.94546622304994</v>
+      </c>
+      <c r="AC13" s="1">
+        <f t="shared" ref="AC13:AC18" si="9">O13</f>
+        <v>0.29270111989184699</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>117</v>
+      </c>
+      <c r="H14" t="s">
+        <v>118</v>
+      </c>
+      <c r="I14" t="str">
+        <f>CONCATENATE(G14, " vs ", H14)</f>
+        <v>Tektite dawn vs Lameshur afternoon</v>
+      </c>
+      <c r="J14">
+        <v>6.8192408446520298</v>
+      </c>
+      <c r="K14">
+        <v>0.229479233906657</v>
+      </c>
+      <c r="L14">
+        <v>2.9389997534011599E-3</v>
+      </c>
+      <c r="M14">
+        <v>6.6956507709985099E-3</v>
+      </c>
+      <c r="N14">
+        <v>-5.3541951722644798</v>
+      </c>
+      <c r="O14">
+        <v>3.4686328595397299E-3</v>
+      </c>
+      <c r="P14">
+        <v>2.8802207135226699E-3</v>
+      </c>
+      <c r="Q14">
+        <v>3.6293287414296299E-2</v>
+      </c>
+      <c r="R14" t="str">
+        <f>IF(K14&lt;0.1,J14,"")</f>
+        <v/>
+      </c>
+      <c r="S14" s="1" t="str">
+        <f>IF(K14&lt;L14,K14,"")</f>
+        <v/>
+      </c>
+      <c r="T14" s="1" t="str">
+        <f>IF(K14&lt;0.05,K14,"")</f>
+        <v/>
+      </c>
+      <c r="U14">
+        <f>IF(O14&lt;0.1,N14,"")</f>
+        <v>-5.3541951722644798</v>
+      </c>
+      <c r="V14" s="1" t="str">
+        <f>IF(O14&lt;P14,O14,"")</f>
+        <v/>
+      </c>
+      <c r="W14" s="1">
+        <f>IF(O14&lt;0.05,O14,"")</f>
+        <v>3.4686328595397299E-3</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="Y14" t="str">
+        <f t="shared" si="1"/>
+        <v>Tektite dawn vs Lameshur afternoon</v>
+      </c>
+      <c r="Z14" s="7">
+        <f t="shared" si="6"/>
+        <v>6.8192408446520298</v>
+      </c>
+      <c r="AA14" s="1">
+        <f t="shared" si="7"/>
+        <v>0.229479233906657</v>
+      </c>
+      <c r="AB14" s="7">
+        <f t="shared" si="8"/>
+        <v>-5.3541951722644798</v>
+      </c>
+      <c r="AC14" s="1">
+        <f t="shared" si="9"/>
+        <v>3.4686328595397299E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" t="s">
+        <v>116</v>
+      </c>
+      <c r="H15" t="s">
+        <v>119</v>
+      </c>
+      <c r="I15" t="str">
+        <f>CONCATENATE(G15, " vs ", H15)</f>
+        <v>Yawzi dawn vs Tektite afternoon</v>
+      </c>
+      <c r="J15">
+        <v>-6.0028160116626896</v>
+      </c>
+      <c r="K15">
+        <v>1.4647157903119899E-2</v>
+      </c>
+      <c r="L15">
+        <v>3.9173486407802303E-3</v>
+      </c>
+      <c r="M15">
+        <v>9.1984955595656899E-3</v>
+      </c>
+      <c r="N15">
+        <v>-1.15444777071253</v>
+      </c>
+      <c r="O15">
+        <v>0.94996292555492701</v>
+      </c>
+      <c r="P15">
+        <v>6.3563893155913001E-2</v>
+      </c>
+      <c r="Q15">
+        <v>6.7310320886042593E-2</v>
+      </c>
+      <c r="R15">
+        <f>IF(K15&lt;0.1,J15,"")</f>
+        <v>-6.0028160116626896</v>
+      </c>
+      <c r="S15" s="1" t="str">
+        <f>IF(K15&lt;L15,K15,"")</f>
+        <v/>
+      </c>
+      <c r="T15" s="1">
+        <f>IF(K15&lt;0.05,K15,"")</f>
+        <v>1.4647157903119899E-2</v>
+      </c>
+      <c r="U15" t="str">
+        <f>IF(O15&lt;0.1,N15,"")</f>
+        <v/>
+      </c>
+      <c r="V15" s="1" t="str">
+        <f>IF(O15&lt;P15,O15,"")</f>
+        <v/>
+      </c>
+      <c r="W15" s="1" t="str">
+        <f>IF(O15&lt;0.05,O15,"")</f>
+        <v/>
+      </c>
+      <c r="X15">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="Y15" t="str">
+        <f t="shared" si="1"/>
+        <v>Yawzi dawn vs Tektite afternoon</v>
+      </c>
+      <c r="Z15" s="7">
+        <f t="shared" si="6"/>
+        <v>-6.0028160116626896</v>
+      </c>
+      <c r="AA15" s="1">
+        <f t="shared" si="7"/>
+        <v>1.4647157903119899E-2</v>
+      </c>
+      <c r="AB15" s="7">
+        <f t="shared" si="8"/>
+        <v>-1.15444777071253</v>
+      </c>
+      <c r="AC15" s="1">
+        <f t="shared" si="9"/>
+        <v>0.94996292555492701</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>99</v>
+      </c>
+      <c r="G16" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" t="s">
+        <v>119</v>
+      </c>
+      <c r="I16" t="str">
+        <f>CONCATENATE(G16, " vs ", H16)</f>
+        <v>Lameshur dawn vs Tektite afternoon</v>
+      </c>
+      <c r="J16">
+        <v>-7.0712535431297701</v>
+      </c>
+      <c r="K16">
+        <v>0.45469845808026099</v>
+      </c>
+      <c r="L16">
+        <v>2.9815407689488698E-3</v>
+      </c>
+      <c r="M16">
+        <v>6.6719744227144101E-3</v>
+      </c>
+      <c r="N16">
+        <v>0.137144000080511</v>
+      </c>
+      <c r="O16">
+        <v>0.22361684199310899</v>
+      </c>
+      <c r="P16">
+        <v>6.7643054216847798E-2</v>
+      </c>
+      <c r="Q16">
+        <v>0.129575312354618</v>
+      </c>
+      <c r="R16" t="str">
+        <f>IF(K16&lt;0.1,J16,"")</f>
+        <v/>
+      </c>
+      <c r="S16" s="1" t="str">
+        <f>IF(K16&lt;L16,K16,"")</f>
+        <v/>
+      </c>
+      <c r="T16" s="1" t="str">
+        <f>IF(K16&lt;0.05,K16,"")</f>
+        <v/>
+      </c>
+      <c r="U16" t="str">
+        <f>IF(O16&lt;0.1,N16,"")</f>
+        <v/>
+      </c>
+      <c r="V16" s="1" t="str">
+        <f>IF(O16&lt;P16,O16,"")</f>
+        <v/>
+      </c>
+      <c r="W16" s="1" t="str">
+        <f>IF(O16&lt;0.05,O16,"")</f>
+        <v/>
+      </c>
+      <c r="X16">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="Y16" t="str">
+        <f t="shared" si="1"/>
+        <v>Lameshur dawn vs Tektite afternoon</v>
+      </c>
+      <c r="Z16" s="7">
+        <f t="shared" si="6"/>
+        <v>-7.0712535431297701</v>
+      </c>
+      <c r="AA16" s="1">
+        <f t="shared" si="7"/>
+        <v>0.45469845808026099</v>
+      </c>
+      <c r="AB16" s="7">
+        <f t="shared" si="8"/>
+        <v>0.137144000080511</v>
+      </c>
+      <c r="AC16" s="1">
+        <f t="shared" si="9"/>
+        <v>0.22361684199310899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C17" t="s">
+        <v>100</v>
+      </c>
+      <c r="G17" t="s">
+        <v>117</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="str">
+        <f>CONCATENATE(G17, " vs ", H17)</f>
+        <v>Tektite dawn vs Yawzi afternoon</v>
+      </c>
+      <c r="J17">
+        <v>4.6747199125993101E-2</v>
+      </c>
+      <c r="K17">
+        <v>0.69994040407581903</v>
+      </c>
+      <c r="L17">
+        <v>6.3232660359761106E-2</v>
+      </c>
+      <c r="M17">
+        <v>0.118093116098911</v>
+      </c>
+      <c r="N17">
+        <v>3.1759166990951599</v>
+      </c>
+      <c r="O17">
+        <v>0.50661732543814697</v>
+      </c>
+      <c r="P17">
+        <v>4.10686583021658E-2</v>
+      </c>
+      <c r="Q17">
+        <v>7.7450688699808303E-3</v>
+      </c>
+      <c r="R17" t="str">
+        <f>IF(K17&lt;0.1,J17,"")</f>
+        <v/>
+      </c>
+      <c r="S17" s="1" t="str">
+        <f>IF(K17&lt;L17,K17,"")</f>
+        <v/>
+      </c>
+      <c r="T17" s="1" t="str">
+        <f>IF(K17&lt;0.05,K17,"")</f>
+        <v/>
+      </c>
+      <c r="U17" t="str">
+        <f>IF(O17&lt;0.1,N17,"")</f>
+        <v/>
+      </c>
+      <c r="V17" s="1" t="str">
+        <f>IF(O17&lt;P17,O17,"")</f>
+        <v/>
+      </c>
+      <c r="W17" s="1" t="str">
+        <f>IF(O17&lt;0.05,O17,"")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="Y17" t="str">
+        <f t="shared" si="1"/>
+        <v>Tektite dawn vs Yawzi afternoon</v>
+      </c>
+      <c r="Z17" s="7">
+        <f t="shared" si="6"/>
+        <v>4.6747199125993101E-2</v>
+      </c>
+      <c r="AA17" s="1">
+        <f t="shared" si="7"/>
+        <v>0.69994040407581903</v>
+      </c>
+      <c r="AB17" s="7">
+        <f t="shared" si="8"/>
+        <v>3.1759166990951599</v>
+      </c>
+      <c r="AC17" s="1">
+        <f t="shared" si="9"/>
+        <v>0.50661732543814697</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" t="s">
+        <v>101</v>
+      </c>
+      <c r="G18" t="s">
+        <v>116</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="str">
+        <f>CONCATENATE(G18, " vs ", H18)</f>
+        <v>Yawzi dawn vs Lameshur afternoon</v>
+      </c>
+      <c r="J18">
+        <v>2.8616537563313699E-2</v>
+      </c>
+      <c r="K18">
+        <v>0.82118751788248501</v>
+      </c>
+      <c r="L18">
+        <v>4.7691198946749801E-2</v>
+      </c>
+      <c r="M18">
+        <v>0.10551609400114401</v>
+      </c>
+      <c r="N18">
+        <v>-5.3017681226337299</v>
+      </c>
+      <c r="O18">
+        <v>0.23230305843850199</v>
+      </c>
+      <c r="P18">
+        <v>2.9964669188699E-3</v>
+      </c>
+      <c r="Q18">
+        <v>0.10868992171386301</v>
+      </c>
+      <c r="R18" t="str">
+        <f>IF(K18&lt;0.1,J18,"")</f>
+        <v/>
+      </c>
+      <c r="S18" s="1" t="str">
+        <f>IF(K18&lt;L18,K18,"")</f>
+        <v/>
+      </c>
+      <c r="T18" s="1" t="str">
+        <f>IF(K18&lt;0.05,K18,"")</f>
+        <v/>
+      </c>
+      <c r="U18" t="str">
+        <f>IF(O18&lt;0.1,N18,"")</f>
+        <v/>
+      </c>
+      <c r="V18" s="1" t="str">
+        <f>IF(O18&lt;P18,O18,"")</f>
+        <v/>
+      </c>
+      <c r="W18" s="1" t="str">
+        <f>IF(O18&lt;0.05,O18,"")</f>
+        <v/>
+      </c>
+      <c r="X18">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="Y18" t="str">
+        <f t="shared" si="1"/>
+        <v>Yawzi dawn vs Lameshur afternoon</v>
+      </c>
+      <c r="Z18" s="7">
+        <f t="shared" si="6"/>
+        <v>2.8616537563313699E-2</v>
+      </c>
+      <c r="AA18" s="1">
+        <f t="shared" si="7"/>
+        <v>0.82118751788248501</v>
+      </c>
+      <c r="AB18" s="7">
+        <f t="shared" si="8"/>
+        <v>-5.3017681226337299</v>
+      </c>
+      <c r="AC18" s="1">
+        <f t="shared" si="9"/>
+        <v>0.23230305843850199</v>
+      </c>
+    </row>
+  </sheetData>
+  <autoFilter ref="A3:AC3" xr:uid="{1BC6478F-9C54-DD45-81FA-50E2F709ECE0}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:W18">
+    <sortCondition descending="1" ref="E5:E18"/>
+    <sortCondition ref="G5:G18"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
 </file>